--- a/static/downloads/fba-guide-and-product-research-tools.xlsx
+++ b/static/downloads/fba-guide-and-product-research-tools.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4488" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4488"/>
   </bookViews>
   <sheets>
     <sheet name="WELCOME!" sheetId="6" r:id="rId1"/>
@@ -3713,12 +3713,126 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="89" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="86" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="52" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="51" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="85" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="84" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="86" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="42" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="63" borderId="63" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="52" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="51" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="53" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="54" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="53" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3737,27 +3851,6 @@
     <xf numFmtId="0" fontId="11" fillId="51" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="53" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="52" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="51" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="53" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="54" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3800,6 +3893,12 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="18" fontId="41" fillId="65" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="41" fillId="65" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="53" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3815,6 +3914,126 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="56" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="56" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="56" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="56" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="56" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="56" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="56" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="64" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="64" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="56" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="56" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="56" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="56" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="56" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="62" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="62" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="62" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="62" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="62" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="62" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="12" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="12" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="56" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="56" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="56" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="56" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="20" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="20" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="56" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="56" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3824,16 +4043,10 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="56" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="56" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="20" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="26" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="20" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="26" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="56" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3848,17 +4061,11 @@
     <xf numFmtId="0" fontId="9" fillId="56" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="26" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="26" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="56" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="56" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="9" fillId="56" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="56" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="29" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3866,11 +4073,14 @@
     <xf numFmtId="1" fontId="9" fillId="29" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="9" fillId="32" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="32" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="62" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3898,204 +4108,6 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="56" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="56" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="32" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="32" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="56" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="56" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="12" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="12" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="62" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="62" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="62" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="62" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="62" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="62" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="56" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="56" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="56" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="56" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="56" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="56" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="56" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="64" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="64" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="56" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="56" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="56" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="56" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="56" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="56" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="56" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="45" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="45" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="47" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="47" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="47" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="47" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="45" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="45" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="43" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="43" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="41" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="41" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="43" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="43" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="43" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="43" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="56" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4110,110 +4122,98 @@
     <xf numFmtId="0" fontId="24" fillId="52" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="45" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="45" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="89" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="86" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="45" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="45" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="41" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="52" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="41" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="51" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="43" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="43" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="43" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="43" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="43" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="43" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="56" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="56" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="58" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="58" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="85" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="84" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="86" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="45" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="45" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="42" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="47" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="54" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="63" borderId="63" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="41" fillId="65" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="41" fillId="65" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="47" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="47" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="47" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5075,7 +5075,7 @@
   </sheetPr>
   <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:N21"/>
     </sheetView>
   </sheetViews>
@@ -5088,453 +5088,453 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21">
-      <c r="A1" s="228"/>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="228"/>
-      <c r="L1" s="228"/>
-      <c r="M1" s="228"/>
-      <c r="N1" s="228"/>
+      <c r="A1" s="248"/>
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="248"/>
+      <c r="E1" s="248"/>
+      <c r="F1" s="248"/>
+      <c r="G1" s="248"/>
+      <c r="H1" s="248"/>
+      <c r="I1" s="248"/>
+      <c r="J1" s="248"/>
+      <c r="K1" s="248"/>
+      <c r="L1" s="248"/>
+      <c r="M1" s="248"/>
+      <c r="N1" s="248"/>
     </row>
     <row r="2" spans="1:14" ht="21" customHeight="1">
-      <c r="A2" s="229"/>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="229"/>
-      <c r="L2" s="229"/>
-      <c r="M2" s="229"/>
-      <c r="N2" s="229"/>
+      <c r="A2" s="249"/>
+      <c r="B2" s="249"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="249"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="249"/>
+      <c r="J2" s="249"/>
+      <c r="K2" s="249"/>
+      <c r="L2" s="249"/>
+      <c r="M2" s="249"/>
+      <c r="N2" s="249"/>
     </row>
     <row r="3" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A3" s="229"/>
-      <c r="B3" s="229"/>
-      <c r="C3" s="229"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="229"/>
-      <c r="F3" s="229"/>
-      <c r="G3" s="229"/>
-      <c r="H3" s="229"/>
-      <c r="I3" s="229"/>
-      <c r="J3" s="229"/>
-      <c r="K3" s="229"/>
-      <c r="L3" s="229"/>
-      <c r="M3" s="229"/>
-      <c r="N3" s="229"/>
+      <c r="A3" s="249"/>
+      <c r="B3" s="249"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="249"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
+      <c r="N3" s="249"/>
     </row>
     <row r="4" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A4" s="229"/>
-      <c r="B4" s="229"/>
-      <c r="C4" s="229"/>
-      <c r="D4" s="229"/>
-      <c r="E4" s="229"/>
-      <c r="F4" s="229"/>
-      <c r="G4" s="229"/>
-      <c r="H4" s="229"/>
-      <c r="I4" s="229"/>
-      <c r="J4" s="229"/>
-      <c r="K4" s="229"/>
-      <c r="L4" s="229"/>
-      <c r="M4" s="229"/>
-      <c r="N4" s="229"/>
+      <c r="A4" s="249"/>
+      <c r="B4" s="249"/>
+      <c r="C4" s="249"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="249"/>
+      <c r="F4" s="249"/>
+      <c r="G4" s="249"/>
+      <c r="H4" s="249"/>
+      <c r="I4" s="249"/>
+      <c r="J4" s="249"/>
+      <c r="K4" s="249"/>
+      <c r="L4" s="249"/>
+      <c r="M4" s="249"/>
+      <c r="N4" s="249"/>
     </row>
     <row r="5" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A5" s="229"/>
-      <c r="B5" s="229"/>
-      <c r="C5" s="229"/>
-      <c r="D5" s="229"/>
-      <c r="E5" s="229"/>
-      <c r="F5" s="229"/>
-      <c r="G5" s="229"/>
-      <c r="H5" s="229"/>
-      <c r="I5" s="229"/>
-      <c r="J5" s="229"/>
-      <c r="K5" s="229"/>
-      <c r="L5" s="229"/>
-      <c r="M5" s="229"/>
-      <c r="N5" s="229"/>
+      <c r="A5" s="249"/>
+      <c r="B5" s="249"/>
+      <c r="C5" s="249"/>
+      <c r="D5" s="249"/>
+      <c r="E5" s="249"/>
+      <c r="F5" s="249"/>
+      <c r="G5" s="249"/>
+      <c r="H5" s="249"/>
+      <c r="I5" s="249"/>
+      <c r="J5" s="249"/>
+      <c r="K5" s="249"/>
+      <c r="L5" s="249"/>
+      <c r="M5" s="249"/>
+      <c r="N5" s="249"/>
     </row>
     <row r="6" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A6" s="229"/>
-      <c r="B6" s="229"/>
-      <c r="C6" s="229"/>
-      <c r="D6" s="229"/>
-      <c r="E6" s="229"/>
-      <c r="F6" s="229"/>
-      <c r="G6" s="229"/>
-      <c r="H6" s="229"/>
-      <c r="I6" s="229"/>
-      <c r="J6" s="229"/>
-      <c r="K6" s="229"/>
-      <c r="L6" s="229"/>
-      <c r="M6" s="229"/>
-      <c r="N6" s="229"/>
+      <c r="A6" s="249"/>
+      <c r="B6" s="249"/>
+      <c r="C6" s="249"/>
+      <c r="D6" s="249"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="249"/>
+      <c r="I6" s="249"/>
+      <c r="J6" s="249"/>
+      <c r="K6" s="249"/>
+      <c r="L6" s="249"/>
+      <c r="M6" s="249"/>
+      <c r="N6" s="249"/>
     </row>
     <row r="7" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A7" s="229"/>
-      <c r="B7" s="229"/>
-      <c r="C7" s="229"/>
-      <c r="D7" s="229"/>
-      <c r="E7" s="229"/>
-      <c r="F7" s="229"/>
-      <c r="G7" s="229"/>
-      <c r="H7" s="229"/>
-      <c r="I7" s="229"/>
-      <c r="J7" s="229"/>
-      <c r="K7" s="229"/>
-      <c r="L7" s="229"/>
-      <c r="M7" s="229"/>
-      <c r="N7" s="229"/>
+      <c r="A7" s="249"/>
+      <c r="B7" s="249"/>
+      <c r="C7" s="249"/>
+      <c r="D7" s="249"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="249"/>
+      <c r="I7" s="249"/>
+      <c r="J7" s="249"/>
+      <c r="K7" s="249"/>
+      <c r="L7" s="249"/>
+      <c r="M7" s="249"/>
+      <c r="N7" s="249"/>
     </row>
     <row r="8" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A8" s="229"/>
-      <c r="B8" s="229"/>
-      <c r="C8" s="229"/>
-      <c r="D8" s="229"/>
-      <c r="E8" s="229"/>
-      <c r="F8" s="229"/>
-      <c r="G8" s="229"/>
-      <c r="H8" s="229"/>
-      <c r="I8" s="229"/>
-      <c r="J8" s="229"/>
-      <c r="K8" s="229"/>
-      <c r="L8" s="229"/>
-      <c r="M8" s="229"/>
-      <c r="N8" s="229"/>
+      <c r="A8" s="249"/>
+      <c r="B8" s="249"/>
+      <c r="C8" s="249"/>
+      <c r="D8" s="249"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="249"/>
+      <c r="I8" s="249"/>
+      <c r="J8" s="249"/>
+      <c r="K8" s="249"/>
+      <c r="L8" s="249"/>
+      <c r="M8" s="249"/>
+      <c r="N8" s="249"/>
     </row>
     <row r="9" spans="1:14" ht="21">
-      <c r="A9" s="232" t="str">
+      <c r="A9" s="253" t="str">
         <f>HYPERLINK("https://fennex.agency/","Visite Fennex Agency")</f>
         <v>Visite Fennex Agency</v>
       </c>
-      <c r="B9" s="232"/>
-      <c r="C9" s="232"/>
-      <c r="D9" s="232"/>
-      <c r="E9" s="232"/>
-      <c r="F9" s="232"/>
-      <c r="G9" s="232"/>
-      <c r="H9" s="232" t="str">
+      <c r="B9" s="253"/>
+      <c r="C9" s="253"/>
+      <c r="D9" s="253"/>
+      <c r="E9" s="253"/>
+      <c r="F9" s="253"/>
+      <c r="G9" s="253"/>
+      <c r="H9" s="253" t="str">
         <f>HYPERLINK("https://blog.fennex.agency/","Visite Fennex Blog")</f>
         <v>Visite Fennex Blog</v>
       </c>
-      <c r="I9" s="232"/>
-      <c r="J9" s="232"/>
-      <c r="K9" s="232"/>
-      <c r="L9" s="232"/>
-      <c r="M9" s="232"/>
-      <c r="N9" s="232"/>
+      <c r="I9" s="253"/>
+      <c r="J9" s="253"/>
+      <c r="K9" s="253"/>
+      <c r="L9" s="253"/>
+      <c r="M9" s="253"/>
+      <c r="N9" s="253"/>
     </row>
     <row r="10" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A10" s="231" t="s">
+      <c r="A10" s="252" t="s">
         <v>221</v>
       </c>
-      <c r="B10" s="231"/>
-      <c r="C10" s="231"/>
-      <c r="D10" s="231"/>
-      <c r="E10" s="231"/>
-      <c r="F10" s="231"/>
-      <c r="G10" s="231"/>
-      <c r="H10" s="231"/>
-      <c r="I10" s="231"/>
-      <c r="J10" s="231"/>
-      <c r="K10" s="231"/>
-      <c r="L10" s="231"/>
-      <c r="M10" s="231"/>
-      <c r="N10" s="231"/>
+      <c r="B10" s="252"/>
+      <c r="C10" s="252"/>
+      <c r="D10" s="252"/>
+      <c r="E10" s="252"/>
+      <c r="F10" s="252"/>
+      <c r="G10" s="252"/>
+      <c r="H10" s="252"/>
+      <c r="I10" s="252"/>
+      <c r="J10" s="252"/>
+      <c r="K10" s="252"/>
+      <c r="L10" s="252"/>
+      <c r="M10" s="252"/>
+      <c r="N10" s="252"/>
     </row>
     <row r="11" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A11" s="231"/>
-      <c r="B11" s="231"/>
-      <c r="C11" s="231"/>
-      <c r="D11" s="231"/>
-      <c r="E11" s="231"/>
-      <c r="F11" s="231"/>
-      <c r="G11" s="231"/>
-      <c r="H11" s="231"/>
-      <c r="I11" s="231"/>
-      <c r="J11" s="231"/>
-      <c r="K11" s="231"/>
-      <c r="L11" s="231"/>
-      <c r="M11" s="231"/>
-      <c r="N11" s="231"/>
+      <c r="A11" s="252"/>
+      <c r="B11" s="252"/>
+      <c r="C11" s="252"/>
+      <c r="D11" s="252"/>
+      <c r="E11" s="252"/>
+      <c r="F11" s="252"/>
+      <c r="G11" s="252"/>
+      <c r="H11" s="252"/>
+      <c r="I11" s="252"/>
+      <c r="J11" s="252"/>
+      <c r="K11" s="252"/>
+      <c r="L11" s="252"/>
+      <c r="M11" s="252"/>
+      <c r="N11" s="252"/>
     </row>
     <row r="12" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A12" s="231"/>
-      <c r="B12" s="231"/>
-      <c r="C12" s="231"/>
-      <c r="D12" s="231"/>
-      <c r="E12" s="231"/>
-      <c r="F12" s="231"/>
-      <c r="G12" s="231"/>
-      <c r="H12" s="231"/>
-      <c r="I12" s="231"/>
-      <c r="J12" s="231"/>
-      <c r="K12" s="231"/>
-      <c r="L12" s="231"/>
-      <c r="M12" s="231"/>
-      <c r="N12" s="231"/>
+      <c r="A12" s="252"/>
+      <c r="B12" s="252"/>
+      <c r="C12" s="252"/>
+      <c r="D12" s="252"/>
+      <c r="E12" s="252"/>
+      <c r="F12" s="252"/>
+      <c r="G12" s="252"/>
+      <c r="H12" s="252"/>
+      <c r="I12" s="252"/>
+      <c r="J12" s="252"/>
+      <c r="K12" s="252"/>
+      <c r="L12" s="252"/>
+      <c r="M12" s="252"/>
+      <c r="N12" s="252"/>
     </row>
     <row r="13" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A13" s="231"/>
-      <c r="B13" s="231"/>
-      <c r="C13" s="231"/>
-      <c r="D13" s="231"/>
-      <c r="E13" s="231"/>
-      <c r="F13" s="231"/>
-      <c r="G13" s="231"/>
-      <c r="H13" s="231"/>
-      <c r="I13" s="231"/>
-      <c r="J13" s="231"/>
-      <c r="K13" s="231"/>
-      <c r="L13" s="231"/>
-      <c r="M13" s="231"/>
-      <c r="N13" s="231"/>
+      <c r="A13" s="252"/>
+      <c r="B13" s="252"/>
+      <c r="C13" s="252"/>
+      <c r="D13" s="252"/>
+      <c r="E13" s="252"/>
+      <c r="F13" s="252"/>
+      <c r="G13" s="252"/>
+      <c r="H13" s="252"/>
+      <c r="I13" s="252"/>
+      <c r="J13" s="252"/>
+      <c r="K13" s="252"/>
+      <c r="L13" s="252"/>
+      <c r="M13" s="252"/>
+      <c r="N13" s="252"/>
     </row>
     <row r="14" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A14" s="231"/>
-      <c r="B14" s="231"/>
-      <c r="C14" s="231"/>
-      <c r="D14" s="231"/>
-      <c r="E14" s="231"/>
-      <c r="F14" s="231"/>
-      <c r="G14" s="231"/>
-      <c r="H14" s="231"/>
-      <c r="I14" s="231"/>
-      <c r="J14" s="231"/>
-      <c r="K14" s="231"/>
-      <c r="L14" s="231"/>
-      <c r="M14" s="231"/>
-      <c r="N14" s="231"/>
+      <c r="A14" s="252"/>
+      <c r="B14" s="252"/>
+      <c r="C14" s="252"/>
+      <c r="D14" s="252"/>
+      <c r="E14" s="252"/>
+      <c r="F14" s="252"/>
+      <c r="G14" s="252"/>
+      <c r="H14" s="252"/>
+      <c r="I14" s="252"/>
+      <c r="J14" s="252"/>
+      <c r="K14" s="252"/>
+      <c r="L14" s="252"/>
+      <c r="M14" s="252"/>
+      <c r="N14" s="252"/>
     </row>
     <row r="15" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A15" s="231"/>
-      <c r="B15" s="231"/>
-      <c r="C15" s="231"/>
-      <c r="D15" s="231"/>
-      <c r="E15" s="231"/>
-      <c r="F15" s="231"/>
-      <c r="G15" s="231"/>
-      <c r="H15" s="231"/>
-      <c r="I15" s="231"/>
-      <c r="J15" s="231"/>
-      <c r="K15" s="231"/>
-      <c r="L15" s="231"/>
-      <c r="M15" s="231"/>
-      <c r="N15" s="231"/>
+      <c r="A15" s="252"/>
+      <c r="B15" s="252"/>
+      <c r="C15" s="252"/>
+      <c r="D15" s="252"/>
+      <c r="E15" s="252"/>
+      <c r="F15" s="252"/>
+      <c r="G15" s="252"/>
+      <c r="H15" s="252"/>
+      <c r="I15" s="252"/>
+      <c r="J15" s="252"/>
+      <c r="K15" s="252"/>
+      <c r="L15" s="252"/>
+      <c r="M15" s="252"/>
+      <c r="N15" s="252"/>
     </row>
     <row r="16" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A16" s="230" t="s">
+      <c r="A16" s="251" t="s">
         <v>220</v>
       </c>
-      <c r="B16" s="230"/>
-      <c r="C16" s="230"/>
-      <c r="D16" s="230"/>
-      <c r="E16" s="230"/>
-      <c r="F16" s="230"/>
-      <c r="G16" s="230"/>
-      <c r="H16" s="230"/>
-      <c r="I16" s="230"/>
-      <c r="J16" s="230"/>
-      <c r="K16" s="230"/>
-      <c r="L16" s="230"/>
-      <c r="M16" s="230"/>
-      <c r="N16" s="230"/>
+      <c r="B16" s="251"/>
+      <c r="C16" s="251"/>
+      <c r="D16" s="251"/>
+      <c r="E16" s="251"/>
+      <c r="F16" s="251"/>
+      <c r="G16" s="251"/>
+      <c r="H16" s="251"/>
+      <c r="I16" s="251"/>
+      <c r="J16" s="251"/>
+      <c r="K16" s="251"/>
+      <c r="L16" s="251"/>
+      <c r="M16" s="251"/>
+      <c r="N16" s="251"/>
     </row>
     <row r="17" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A17" s="230"/>
-      <c r="B17" s="230"/>
-      <c r="C17" s="230"/>
-      <c r="D17" s="230"/>
-      <c r="E17" s="230"/>
-      <c r="F17" s="230"/>
-      <c r="G17" s="230"/>
-      <c r="H17" s="230"/>
-      <c r="I17" s="230"/>
-      <c r="J17" s="230"/>
-      <c r="K17" s="230"/>
-      <c r="L17" s="230"/>
-      <c r="M17" s="230"/>
-      <c r="N17" s="230"/>
+      <c r="A17" s="251"/>
+      <c r="B17" s="251"/>
+      <c r="C17" s="251"/>
+      <c r="D17" s="251"/>
+      <c r="E17" s="251"/>
+      <c r="F17" s="251"/>
+      <c r="G17" s="251"/>
+      <c r="H17" s="251"/>
+      <c r="I17" s="251"/>
+      <c r="J17" s="251"/>
+      <c r="K17" s="251"/>
+      <c r="L17" s="251"/>
+      <c r="M17" s="251"/>
+      <c r="N17" s="251"/>
     </row>
     <row r="18" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A18" s="230"/>
-      <c r="B18" s="230"/>
-      <c r="C18" s="230"/>
-      <c r="D18" s="230"/>
-      <c r="E18" s="230"/>
-      <c r="F18" s="230"/>
-      <c r="G18" s="230"/>
-      <c r="H18" s="230"/>
-      <c r="I18" s="230"/>
-      <c r="J18" s="230"/>
-      <c r="K18" s="230"/>
-      <c r="L18" s="230"/>
-      <c r="M18" s="230"/>
-      <c r="N18" s="230"/>
+      <c r="A18" s="251"/>
+      <c r="B18" s="251"/>
+      <c r="C18" s="251"/>
+      <c r="D18" s="251"/>
+      <c r="E18" s="251"/>
+      <c r="F18" s="251"/>
+      <c r="G18" s="251"/>
+      <c r="H18" s="251"/>
+      <c r="I18" s="251"/>
+      <c r="J18" s="251"/>
+      <c r="K18" s="251"/>
+      <c r="L18" s="251"/>
+      <c r="M18" s="251"/>
+      <c r="N18" s="251"/>
     </row>
     <row r="19" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A19" s="379" t="s">
+      <c r="A19" s="254" t="s">
         <v>293</v>
       </c>
-      <c r="B19" s="379"/>
-      <c r="C19" s="379"/>
-      <c r="D19" s="379"/>
-      <c r="E19" s="379"/>
-      <c r="F19" s="379"/>
-      <c r="G19" s="379"/>
-      <c r="H19" s="379"/>
-      <c r="I19" s="379"/>
-      <c r="J19" s="379"/>
-      <c r="K19" s="379"/>
-      <c r="L19" s="379"/>
-      <c r="M19" s="379"/>
-      <c r="N19" s="379"/>
+      <c r="B19" s="254"/>
+      <c r="C19" s="254"/>
+      <c r="D19" s="254"/>
+      <c r="E19" s="254"/>
+      <c r="F19" s="254"/>
+      <c r="G19" s="254"/>
+      <c r="H19" s="254"/>
+      <c r="I19" s="254"/>
+      <c r="J19" s="254"/>
+      <c r="K19" s="254"/>
+      <c r="L19" s="254"/>
+      <c r="M19" s="254"/>
+      <c r="N19" s="254"/>
     </row>
     <row r="20" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A20" s="379"/>
-      <c r="B20" s="379"/>
-      <c r="C20" s="379"/>
-      <c r="D20" s="379"/>
-      <c r="E20" s="379"/>
-      <c r="F20" s="379"/>
-      <c r="G20" s="379"/>
-      <c r="H20" s="379"/>
-      <c r="I20" s="379"/>
-      <c r="J20" s="379"/>
-      <c r="K20" s="379"/>
-      <c r="L20" s="379"/>
-      <c r="M20" s="379"/>
-      <c r="N20" s="379"/>
+      <c r="A20" s="254"/>
+      <c r="B20" s="254"/>
+      <c r="C20" s="254"/>
+      <c r="D20" s="254"/>
+      <c r="E20" s="254"/>
+      <c r="F20" s="254"/>
+      <c r="G20" s="254"/>
+      <c r="H20" s="254"/>
+      <c r="I20" s="254"/>
+      <c r="J20" s="254"/>
+      <c r="K20" s="254"/>
+      <c r="L20" s="254"/>
+      <c r="M20" s="254"/>
+      <c r="N20" s="254"/>
     </row>
     <row r="21" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A21" s="379"/>
-      <c r="B21" s="379"/>
-      <c r="C21" s="379"/>
-      <c r="D21" s="379"/>
-      <c r="E21" s="379"/>
-      <c r="F21" s="379"/>
-      <c r="G21" s="379"/>
-      <c r="H21" s="379"/>
-      <c r="I21" s="379"/>
-      <c r="J21" s="379"/>
-      <c r="K21" s="379"/>
-      <c r="L21" s="379"/>
-      <c r="M21" s="379"/>
-      <c r="N21" s="379"/>
+      <c r="A21" s="254"/>
+      <c r="B21" s="254"/>
+      <c r="C21" s="254"/>
+      <c r="D21" s="254"/>
+      <c r="E21" s="254"/>
+      <c r="F21" s="254"/>
+      <c r="G21" s="254"/>
+      <c r="H21" s="254"/>
+      <c r="I21" s="254"/>
+      <c r="J21" s="254"/>
+      <c r="K21" s="254"/>
+      <c r="L21" s="254"/>
+      <c r="M21" s="254"/>
+      <c r="N21" s="254"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="86"/>
-      <c r="B22" s="218" t="s">
+      <c r="B22" s="250" t="s">
         <v>228</v>
       </c>
-      <c r="C22" s="218"/>
-      <c r="D22" s="218"/>
-      <c r="E22" s="218"/>
-      <c r="F22" s="218"/>
-      <c r="G22" s="218"/>
-      <c r="H22" s="218"/>
-      <c r="I22" s="218"/>
-      <c r="J22" s="218"/>
-      <c r="K22" s="218"/>
-      <c r="L22" s="218"/>
-      <c r="M22" s="218"/>
+      <c r="C22" s="250"/>
+      <c r="D22" s="250"/>
+      <c r="E22" s="250"/>
+      <c r="F22" s="250"/>
+      <c r="G22" s="250"/>
+      <c r="H22" s="250"/>
+      <c r="I22" s="250"/>
+      <c r="J22" s="250"/>
+      <c r="K22" s="250"/>
+      <c r="L22" s="250"/>
+      <c r="M22" s="250"/>
       <c r="N22" s="44"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="86"/>
-      <c r="B23" s="218"/>
-      <c r="C23" s="218"/>
-      <c r="D23" s="218"/>
-      <c r="E23" s="218"/>
-      <c r="F23" s="218"/>
-      <c r="G23" s="218"/>
-      <c r="H23" s="218"/>
-      <c r="I23" s="218"/>
-      <c r="J23" s="218"/>
-      <c r="K23" s="218"/>
-      <c r="L23" s="218"/>
-      <c r="M23" s="218"/>
+      <c r="B23" s="250"/>
+      <c r="C23" s="250"/>
+      <c r="D23" s="250"/>
+      <c r="E23" s="250"/>
+      <c r="F23" s="250"/>
+      <c r="G23" s="250"/>
+      <c r="H23" s="250"/>
+      <c r="I23" s="250"/>
+      <c r="J23" s="250"/>
+      <c r="K23" s="250"/>
+      <c r="L23" s="250"/>
+      <c r="M23" s="250"/>
       <c r="N23" s="44"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="86"/>
-      <c r="B24" s="218" t="s">
+      <c r="B24" s="250" t="s">
         <v>234</v>
       </c>
-      <c r="C24" s="218"/>
-      <c r="D24" s="218"/>
-      <c r="E24" s="218"/>
-      <c r="F24" s="218"/>
-      <c r="G24" s="218"/>
-      <c r="H24" s="218"/>
-      <c r="I24" s="218"/>
-      <c r="J24" s="218"/>
-      <c r="K24" s="218"/>
-      <c r="L24" s="218"/>
-      <c r="M24" s="218"/>
+      <c r="C24" s="250"/>
+      <c r="D24" s="250"/>
+      <c r="E24" s="250"/>
+      <c r="F24" s="250"/>
+      <c r="G24" s="250"/>
+      <c r="H24" s="250"/>
+      <c r="I24" s="250"/>
+      <c r="J24" s="250"/>
+      <c r="K24" s="250"/>
+      <c r="L24" s="250"/>
+      <c r="M24" s="250"/>
       <c r="N24" s="44"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="86"/>
-      <c r="B25" s="218"/>
-      <c r="C25" s="218"/>
-      <c r="D25" s="218"/>
-      <c r="E25" s="218"/>
-      <c r="F25" s="218"/>
-      <c r="G25" s="218"/>
-      <c r="H25" s="218"/>
-      <c r="I25" s="218"/>
-      <c r="J25" s="218"/>
-      <c r="K25" s="218"/>
-      <c r="L25" s="218"/>
-      <c r="M25" s="218"/>
+      <c r="B25" s="250"/>
+      <c r="C25" s="250"/>
+      <c r="D25" s="250"/>
+      <c r="E25" s="250"/>
+      <c r="F25" s="250"/>
+      <c r="G25" s="250"/>
+      <c r="H25" s="250"/>
+      <c r="I25" s="250"/>
+      <c r="J25" s="250"/>
+      <c r="K25" s="250"/>
+      <c r="L25" s="250"/>
+      <c r="M25" s="250"/>
       <c r="N25" s="44"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="86"/>
-      <c r="B26" s="218" t="s">
+      <c r="B26" s="250" t="s">
         <v>268</v>
       </c>
-      <c r="C26" s="218"/>
-      <c r="D26" s="218"/>
-      <c r="E26" s="218"/>
-      <c r="F26" s="218"/>
-      <c r="G26" s="218"/>
-      <c r="H26" s="218"/>
-      <c r="I26" s="218"/>
-      <c r="J26" s="218"/>
-      <c r="K26" s="218"/>
-      <c r="L26" s="218"/>
-      <c r="M26" s="218"/>
+      <c r="C26" s="250"/>
+      <c r="D26" s="250"/>
+      <c r="E26" s="250"/>
+      <c r="F26" s="250"/>
+      <c r="G26" s="250"/>
+      <c r="H26" s="250"/>
+      <c r="I26" s="250"/>
+      <c r="J26" s="250"/>
+      <c r="K26" s="250"/>
+      <c r="L26" s="250"/>
+      <c r="M26" s="250"/>
       <c r="N26" s="44"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="86"/>
-      <c r="B27" s="218"/>
-      <c r="C27" s="218"/>
-      <c r="D27" s="218"/>
-      <c r="E27" s="218"/>
-      <c r="F27" s="218"/>
-      <c r="G27" s="218"/>
-      <c r="H27" s="218"/>
-      <c r="I27" s="218"/>
-      <c r="J27" s="218"/>
-      <c r="K27" s="218"/>
-      <c r="L27" s="218"/>
-      <c r="M27" s="218"/>
+      <c r="B27" s="250"/>
+      <c r="C27" s="250"/>
+      <c r="D27" s="250"/>
+      <c r="E27" s="250"/>
+      <c r="F27" s="250"/>
+      <c r="G27" s="250"/>
+      <c r="H27" s="250"/>
+      <c r="I27" s="250"/>
+      <c r="J27" s="250"/>
+      <c r="K27" s="250"/>
+      <c r="L27" s="250"/>
+      <c r="M27" s="250"/>
       <c r="N27" s="44"/>
     </row>
     <row r="28" spans="1:14" ht="15.6">
@@ -5709,104 +5709,104 @@
     </row>
     <row r="38" spans="1:14" ht="14.4" customHeight="1">
       <c r="A38" s="86"/>
-      <c r="B38" s="218" t="s">
+      <c r="B38" s="250" t="s">
         <v>235</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="218"/>
-      <c r="E38" s="218"/>
-      <c r="F38" s="218"/>
-      <c r="G38" s="218"/>
-      <c r="H38" s="218"/>
-      <c r="I38" s="218"/>
-      <c r="J38" s="218"/>
-      <c r="K38" s="218"/>
-      <c r="L38" s="218"/>
-      <c r="M38" s="218"/>
+      <c r="C38" s="250"/>
+      <c r="D38" s="250"/>
+      <c r="E38" s="250"/>
+      <c r="F38" s="250"/>
+      <c r="G38" s="250"/>
+      <c r="H38" s="250"/>
+      <c r="I38" s="250"/>
+      <c r="J38" s="250"/>
+      <c r="K38" s="250"/>
+      <c r="L38" s="250"/>
+      <c r="M38" s="250"/>
       <c r="N38" s="44"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="86"/>
-      <c r="B39" s="218"/>
-      <c r="C39" s="218"/>
-      <c r="D39" s="218"/>
-      <c r="E39" s="218"/>
-      <c r="F39" s="218"/>
-      <c r="G39" s="218"/>
-      <c r="H39" s="218"/>
-      <c r="I39" s="218"/>
-      <c r="J39" s="218"/>
-      <c r="K39" s="218"/>
-      <c r="L39" s="218"/>
-      <c r="M39" s="218"/>
+      <c r="B39" s="250"/>
+      <c r="C39" s="250"/>
+      <c r="D39" s="250"/>
+      <c r="E39" s="250"/>
+      <c r="F39" s="250"/>
+      <c r="G39" s="250"/>
+      <c r="H39" s="250"/>
+      <c r="I39" s="250"/>
+      <c r="J39" s="250"/>
+      <c r="K39" s="250"/>
+      <c r="L39" s="250"/>
+      <c r="M39" s="250"/>
       <c r="N39" s="44"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="86"/>
-      <c r="B40" s="218" t="s">
+      <c r="B40" s="250" t="s">
         <v>269</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="218"/>
-      <c r="E40" s="218"/>
-      <c r="F40" s="218"/>
-      <c r="G40" s="218"/>
-      <c r="H40" s="218"/>
-      <c r="I40" s="218"/>
-      <c r="J40" s="218"/>
-      <c r="K40" s="218"/>
-      <c r="L40" s="218"/>
-      <c r="M40" s="218"/>
+      <c r="C40" s="250"/>
+      <c r="D40" s="250"/>
+      <c r="E40" s="250"/>
+      <c r="F40" s="250"/>
+      <c r="G40" s="250"/>
+      <c r="H40" s="250"/>
+      <c r="I40" s="250"/>
+      <c r="J40" s="250"/>
+      <c r="K40" s="250"/>
+      <c r="L40" s="250"/>
+      <c r="M40" s="250"/>
       <c r="N40" s="44"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="86"/>
-      <c r="B41" s="218"/>
-      <c r="C41" s="218"/>
-      <c r="D41" s="218"/>
-      <c r="E41" s="218"/>
-      <c r="F41" s="218"/>
-      <c r="G41" s="218"/>
-      <c r="H41" s="218"/>
-      <c r="I41" s="218"/>
-      <c r="J41" s="218"/>
-      <c r="K41" s="218"/>
-      <c r="L41" s="218"/>
-      <c r="M41" s="218"/>
+      <c r="B41" s="250"/>
+      <c r="C41" s="250"/>
+      <c r="D41" s="250"/>
+      <c r="E41" s="250"/>
+      <c r="F41" s="250"/>
+      <c r="G41" s="250"/>
+      <c r="H41" s="250"/>
+      <c r="I41" s="250"/>
+      <c r="J41" s="250"/>
+      <c r="K41" s="250"/>
+      <c r="L41" s="250"/>
+      <c r="M41" s="250"/>
       <c r="N41" s="44"/>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="86"/>
-      <c r="B42" s="218" t="s">
+      <c r="B42" s="250" t="s">
         <v>250</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="218"/>
-      <c r="E42" s="218"/>
-      <c r="F42" s="218"/>
-      <c r="G42" s="218"/>
-      <c r="H42" s="218"/>
-      <c r="I42" s="218"/>
-      <c r="J42" s="218"/>
-      <c r="K42" s="218"/>
-      <c r="L42" s="218"/>
-      <c r="M42" s="218"/>
+      <c r="C42" s="250"/>
+      <c r="D42" s="250"/>
+      <c r="E42" s="250"/>
+      <c r="F42" s="250"/>
+      <c r="G42" s="250"/>
+      <c r="H42" s="250"/>
+      <c r="I42" s="250"/>
+      <c r="J42" s="250"/>
+      <c r="K42" s="250"/>
+      <c r="L42" s="250"/>
+      <c r="M42" s="250"/>
       <c r="N42" s="44"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="86"/>
-      <c r="B43" s="218"/>
-      <c r="C43" s="218"/>
-      <c r="D43" s="218"/>
-      <c r="E43" s="218"/>
-      <c r="F43" s="218"/>
-      <c r="G43" s="218"/>
-      <c r="H43" s="218"/>
-      <c r="I43" s="218"/>
-      <c r="J43" s="218"/>
-      <c r="K43" s="218"/>
-      <c r="L43" s="218"/>
-      <c r="M43" s="218"/>
+      <c r="B43" s="250"/>
+      <c r="C43" s="250"/>
+      <c r="D43" s="250"/>
+      <c r="E43" s="250"/>
+      <c r="F43" s="250"/>
+      <c r="G43" s="250"/>
+      <c r="H43" s="250"/>
+      <c r="I43" s="250"/>
+      <c r="J43" s="250"/>
+      <c r="K43" s="250"/>
+      <c r="L43" s="250"/>
+      <c r="M43" s="250"/>
       <c r="N43" s="44"/>
     </row>
     <row r="44" spans="1:14" s="58" customFormat="1" ht="15.6">
@@ -5913,136 +5913,136 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="86"/>
-      <c r="B50" s="219" t="s">
+      <c r="B50" s="256" t="s">
         <v>229</v>
       </c>
-      <c r="C50" s="227"/>
-      <c r="D50" s="227"/>
-      <c r="E50" s="227"/>
-      <c r="F50" s="227"/>
-      <c r="G50" s="227"/>
-      <c r="H50" s="227"/>
-      <c r="I50" s="227"/>
-      <c r="J50" s="227"/>
-      <c r="K50" s="227"/>
-      <c r="L50" s="227"/>
-      <c r="M50" s="227"/>
+      <c r="C50" s="257"/>
+      <c r="D50" s="257"/>
+      <c r="E50" s="257"/>
+      <c r="F50" s="257"/>
+      <c r="G50" s="257"/>
+      <c r="H50" s="257"/>
+      <c r="I50" s="257"/>
+      <c r="J50" s="257"/>
+      <c r="K50" s="257"/>
+      <c r="L50" s="257"/>
+      <c r="M50" s="257"/>
       <c r="N50" s="44"/>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="86"/>
-      <c r="B51" s="227"/>
-      <c r="C51" s="227"/>
-      <c r="D51" s="227"/>
-      <c r="E51" s="227"/>
-      <c r="F51" s="227"/>
-      <c r="G51" s="227"/>
-      <c r="H51" s="227"/>
-      <c r="I51" s="227"/>
-      <c r="J51" s="227"/>
-      <c r="K51" s="227"/>
-      <c r="L51" s="227"/>
-      <c r="M51" s="227"/>
+      <c r="B51" s="257"/>
+      <c r="C51" s="257"/>
+      <c r="D51" s="257"/>
+      <c r="E51" s="257"/>
+      <c r="F51" s="257"/>
+      <c r="G51" s="257"/>
+      <c r="H51" s="257"/>
+      <c r="I51" s="257"/>
+      <c r="J51" s="257"/>
+      <c r="K51" s="257"/>
+      <c r="L51" s="257"/>
+      <c r="M51" s="257"/>
       <c r="N51" s="91"/>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="86"/>
-      <c r="B52" s="227"/>
-      <c r="C52" s="227"/>
-      <c r="D52" s="227"/>
-      <c r="E52" s="227"/>
-      <c r="F52" s="227"/>
-      <c r="G52" s="227"/>
-      <c r="H52" s="227"/>
-      <c r="I52" s="227"/>
-      <c r="J52" s="227"/>
-      <c r="K52" s="227"/>
-      <c r="L52" s="227"/>
-      <c r="M52" s="227"/>
+      <c r="B52" s="257"/>
+      <c r="C52" s="257"/>
+      <c r="D52" s="257"/>
+      <c r="E52" s="257"/>
+      <c r="F52" s="257"/>
+      <c r="G52" s="257"/>
+      <c r="H52" s="257"/>
+      <c r="I52" s="257"/>
+      <c r="J52" s="257"/>
+      <c r="K52" s="257"/>
+      <c r="L52" s="257"/>
+      <c r="M52" s="257"/>
       <c r="N52" s="91"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="86"/>
-      <c r="B53" s="227"/>
-      <c r="C53" s="227"/>
-      <c r="D53" s="227"/>
-      <c r="E53" s="227"/>
-      <c r="F53" s="227"/>
-      <c r="G53" s="227"/>
-      <c r="H53" s="227"/>
-      <c r="I53" s="227"/>
-      <c r="J53" s="227"/>
-      <c r="K53" s="227"/>
-      <c r="L53" s="227"/>
-      <c r="M53" s="227"/>
+      <c r="B53" s="257"/>
+      <c r="C53" s="257"/>
+      <c r="D53" s="257"/>
+      <c r="E53" s="257"/>
+      <c r="F53" s="257"/>
+      <c r="G53" s="257"/>
+      <c r="H53" s="257"/>
+      <c r="I53" s="257"/>
+      <c r="J53" s="257"/>
+      <c r="K53" s="257"/>
+      <c r="L53" s="257"/>
+      <c r="M53" s="257"/>
       <c r="N53" s="91"/>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="86"/>
-      <c r="B54" s="227"/>
-      <c r="C54" s="227"/>
-      <c r="D54" s="227"/>
-      <c r="E54" s="227"/>
-      <c r="F54" s="227"/>
-      <c r="G54" s="227"/>
-      <c r="H54" s="227"/>
-      <c r="I54" s="227"/>
-      <c r="J54" s="227"/>
-      <c r="K54" s="227"/>
-      <c r="L54" s="227"/>
-      <c r="M54" s="227"/>
+      <c r="B54" s="257"/>
+      <c r="C54" s="257"/>
+      <c r="D54" s="257"/>
+      <c r="E54" s="257"/>
+      <c r="F54" s="257"/>
+      <c r="G54" s="257"/>
+      <c r="H54" s="257"/>
+      <c r="I54" s="257"/>
+      <c r="J54" s="257"/>
+      <c r="K54" s="257"/>
+      <c r="L54" s="257"/>
+      <c r="M54" s="257"/>
       <c r="N54" s="44"/>
     </row>
     <row r="55" spans="1:14" ht="15.6" customHeight="1">
       <c r="A55" s="86"/>
-      <c r="B55" s="218" t="s">
+      <c r="B55" s="250" t="s">
         <v>270</v>
       </c>
-      <c r="C55" s="218"/>
-      <c r="D55" s="218"/>
-      <c r="E55" s="218"/>
-      <c r="F55" s="218"/>
-      <c r="G55" s="218"/>
-      <c r="H55" s="218"/>
-      <c r="I55" s="218"/>
-      <c r="J55" s="218"/>
-      <c r="K55" s="218"/>
-      <c r="L55" s="218"/>
-      <c r="M55" s="218"/>
+      <c r="C55" s="250"/>
+      <c r="D55" s="250"/>
+      <c r="E55" s="250"/>
+      <c r="F55" s="250"/>
+      <c r="G55" s="250"/>
+      <c r="H55" s="250"/>
+      <c r="I55" s="250"/>
+      <c r="J55" s="250"/>
+      <c r="K55" s="250"/>
+      <c r="L55" s="250"/>
+      <c r="M55" s="250"/>
       <c r="N55" s="44"/>
     </row>
     <row r="56" spans="1:14" ht="15.6" customHeight="1">
       <c r="A56" s="86"/>
-      <c r="B56" s="218"/>
-      <c r="C56" s="218"/>
-      <c r="D56" s="218"/>
-      <c r="E56" s="218"/>
-      <c r="F56" s="218"/>
-      <c r="G56" s="218"/>
-      <c r="H56" s="218"/>
-      <c r="I56" s="218"/>
-      <c r="J56" s="218"/>
-      <c r="K56" s="218"/>
-      <c r="L56" s="218"/>
-      <c r="M56" s="218"/>
+      <c r="B56" s="250"/>
+      <c r="C56" s="250"/>
+      <c r="D56" s="250"/>
+      <c r="E56" s="250"/>
+      <c r="F56" s="250"/>
+      <c r="G56" s="250"/>
+      <c r="H56" s="250"/>
+      <c r="I56" s="250"/>
+      <c r="J56" s="250"/>
+      <c r="K56" s="250"/>
+      <c r="L56" s="250"/>
+      <c r="M56" s="250"/>
       <c r="N56" s="44"/>
     </row>
     <row r="57" spans="1:14" ht="15.6">
       <c r="A57" s="86"/>
       <c r="B57" s="94"/>
-      <c r="C57" s="218" t="s">
+      <c r="C57" s="250" t="s">
         <v>240</v>
       </c>
-      <c r="D57" s="218"/>
-      <c r="E57" s="218"/>
-      <c r="F57" s="218"/>
-      <c r="G57" s="218"/>
-      <c r="H57" s="218"/>
-      <c r="I57" s="218"/>
-      <c r="J57" s="218"/>
-      <c r="K57" s="218"/>
-      <c r="L57" s="218"/>
-      <c r="M57" s="218"/>
+      <c r="D57" s="250"/>
+      <c r="E57" s="250"/>
+      <c r="F57" s="250"/>
+      <c r="G57" s="250"/>
+      <c r="H57" s="250"/>
+      <c r="I57" s="250"/>
+      <c r="J57" s="250"/>
+      <c r="K57" s="250"/>
+      <c r="L57" s="250"/>
+      <c r="M57" s="250"/>
       <c r="N57" s="44"/>
     </row>
     <row r="58" spans="1:14" ht="15.6">
@@ -6064,19 +6064,19 @@
     <row r="59" spans="1:14" ht="15.6">
       <c r="A59" s="86"/>
       <c r="B59" s="94"/>
-      <c r="C59" s="218" t="s">
+      <c r="C59" s="250" t="s">
         <v>241</v>
       </c>
-      <c r="D59" s="218"/>
-      <c r="E59" s="218"/>
-      <c r="F59" s="218"/>
-      <c r="G59" s="218"/>
-      <c r="H59" s="218"/>
-      <c r="I59" s="218"/>
-      <c r="J59" s="218"/>
-      <c r="K59" s="218"/>
-      <c r="L59" s="218"/>
-      <c r="M59" s="218"/>
+      <c r="D59" s="250"/>
+      <c r="E59" s="250"/>
+      <c r="F59" s="250"/>
+      <c r="G59" s="250"/>
+      <c r="H59" s="250"/>
+      <c r="I59" s="250"/>
+      <c r="J59" s="250"/>
+      <c r="K59" s="250"/>
+      <c r="L59" s="250"/>
+      <c r="M59" s="250"/>
       <c r="N59" s="44"/>
     </row>
     <row r="60" spans="1:14" ht="15.6">
@@ -6233,131 +6233,131 @@
     </row>
     <row r="69" spans="1:14" ht="15.6" customHeight="1">
       <c r="A69" s="86"/>
-      <c r="B69" s="219" t="s">
+      <c r="B69" s="256" t="s">
         <v>256</v>
       </c>
-      <c r="C69" s="219"/>
-      <c r="D69" s="219"/>
-      <c r="E69" s="219"/>
-      <c r="F69" s="219"/>
-      <c r="G69" s="219"/>
-      <c r="H69" s="219"/>
-      <c r="I69" s="219"/>
-      <c r="J69" s="219"/>
-      <c r="K69" s="219"/>
-      <c r="L69" s="219"/>
-      <c r="M69" s="219"/>
+      <c r="C69" s="256"/>
+      <c r="D69" s="256"/>
+      <c r="E69" s="256"/>
+      <c r="F69" s="256"/>
+      <c r="G69" s="256"/>
+      <c r="H69" s="256"/>
+      <c r="I69" s="256"/>
+      <c r="J69" s="256"/>
+      <c r="K69" s="256"/>
+      <c r="L69" s="256"/>
+      <c r="M69" s="256"/>
     </row>
     <row r="70" spans="1:14" ht="15.6" customHeight="1">
       <c r="A70" s="86"/>
-      <c r="B70" s="219"/>
-      <c r="C70" s="219"/>
-      <c r="D70" s="219"/>
-      <c r="E70" s="219"/>
-      <c r="F70" s="219"/>
-      <c r="G70" s="219"/>
-      <c r="H70" s="219"/>
-      <c r="I70" s="219"/>
-      <c r="J70" s="219"/>
-      <c r="K70" s="219"/>
-      <c r="L70" s="219"/>
-      <c r="M70" s="219"/>
+      <c r="B70" s="256"/>
+      <c r="C70" s="256"/>
+      <c r="D70" s="256"/>
+      <c r="E70" s="256"/>
+      <c r="F70" s="256"/>
+      <c r="G70" s="256"/>
+      <c r="H70" s="256"/>
+      <c r="I70" s="256"/>
+      <c r="J70" s="256"/>
+      <c r="K70" s="256"/>
+      <c r="L70" s="256"/>
+      <c r="M70" s="256"/>
     </row>
     <row r="71" spans="1:14" ht="15.6" customHeight="1">
       <c r="A71" s="86"/>
-      <c r="B71" s="219"/>
-      <c r="C71" s="219"/>
-      <c r="D71" s="219"/>
-      <c r="E71" s="219"/>
-      <c r="F71" s="219"/>
-      <c r="G71" s="219"/>
-      <c r="H71" s="219"/>
-      <c r="I71" s="219"/>
-      <c r="J71" s="219"/>
-      <c r="K71" s="219"/>
-      <c r="L71" s="219"/>
-      <c r="M71" s="219"/>
+      <c r="B71" s="256"/>
+      <c r="C71" s="256"/>
+      <c r="D71" s="256"/>
+      <c r="E71" s="256"/>
+      <c r="F71" s="256"/>
+      <c r="G71" s="256"/>
+      <c r="H71" s="256"/>
+      <c r="I71" s="256"/>
+      <c r="J71" s="256"/>
+      <c r="K71" s="256"/>
+      <c r="L71" s="256"/>
+      <c r="M71" s="256"/>
     </row>
     <row r="72" spans="1:14" ht="15.6" customHeight="1">
       <c r="A72" s="86"/>
-      <c r="B72" s="219"/>
-      <c r="C72" s="219"/>
-      <c r="D72" s="219"/>
-      <c r="E72" s="219"/>
-      <c r="F72" s="219"/>
-      <c r="G72" s="219"/>
-      <c r="H72" s="219"/>
-      <c r="I72" s="219"/>
-      <c r="J72" s="219"/>
-      <c r="K72" s="219"/>
-      <c r="L72" s="219"/>
-      <c r="M72" s="219"/>
+      <c r="B72" s="256"/>
+      <c r="C72" s="256"/>
+      <c r="D72" s="256"/>
+      <c r="E72" s="256"/>
+      <c r="F72" s="256"/>
+      <c r="G72" s="256"/>
+      <c r="H72" s="256"/>
+      <c r="I72" s="256"/>
+      <c r="J72" s="256"/>
+      <c r="K72" s="256"/>
+      <c r="L72" s="256"/>
+      <c r="M72" s="256"/>
     </row>
     <row r="73" spans="1:14" ht="15.6" customHeight="1">
       <c r="A73" s="86"/>
-      <c r="B73" s="219"/>
-      <c r="C73" s="219"/>
-      <c r="D73" s="219"/>
-      <c r="E73" s="219"/>
-      <c r="F73" s="219"/>
-      <c r="G73" s="219"/>
-      <c r="H73" s="219"/>
-      <c r="I73" s="219"/>
-      <c r="J73" s="219"/>
-      <c r="K73" s="219"/>
-      <c r="L73" s="219"/>
-      <c r="M73" s="219"/>
+      <c r="B73" s="256"/>
+      <c r="C73" s="256"/>
+      <c r="D73" s="256"/>
+      <c r="E73" s="256"/>
+      <c r="F73" s="256"/>
+      <c r="G73" s="256"/>
+      <c r="H73" s="256"/>
+      <c r="I73" s="256"/>
+      <c r="J73" s="256"/>
+      <c r="K73" s="256"/>
+      <c r="L73" s="256"/>
+      <c r="M73" s="256"/>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="86"/>
-      <c r="B74" s="218" t="s">
+      <c r="B74" s="250" t="s">
         <v>271</v>
       </c>
-      <c r="C74" s="218"/>
-      <c r="D74" s="218"/>
-      <c r="E74" s="218"/>
-      <c r="F74" s="218"/>
-      <c r="G74" s="218"/>
-      <c r="H74" s="218"/>
-      <c r="I74" s="218"/>
-      <c r="J74" s="218"/>
-      <c r="K74" s="218"/>
-      <c r="L74" s="218"/>
-      <c r="M74" s="218"/>
+      <c r="C74" s="250"/>
+      <c r="D74" s="250"/>
+      <c r="E74" s="250"/>
+      <c r="F74" s="250"/>
+      <c r="G74" s="250"/>
+      <c r="H74" s="250"/>
+      <c r="I74" s="250"/>
+      <c r="J74" s="250"/>
+      <c r="K74" s="250"/>
+      <c r="L74" s="250"/>
+      <c r="M74" s="250"/>
       <c r="N74" s="44"/>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="86"/>
-      <c r="B75" s="218"/>
-      <c r="C75" s="218"/>
-      <c r="D75" s="218"/>
-      <c r="E75" s="218"/>
-      <c r="F75" s="218"/>
-      <c r="G75" s="218"/>
-      <c r="H75" s="218"/>
-      <c r="I75" s="218"/>
-      <c r="J75" s="218"/>
-      <c r="K75" s="218"/>
-      <c r="L75" s="218"/>
-      <c r="M75" s="218"/>
+      <c r="B75" s="250"/>
+      <c r="C75" s="250"/>
+      <c r="D75" s="250"/>
+      <c r="E75" s="250"/>
+      <c r="F75" s="250"/>
+      <c r="G75" s="250"/>
+      <c r="H75" s="250"/>
+      <c r="I75" s="250"/>
+      <c r="J75" s="250"/>
+      <c r="K75" s="250"/>
+      <c r="L75" s="250"/>
+      <c r="M75" s="250"/>
       <c r="N75" s="44"/>
     </row>
     <row r="76" spans="1:14" ht="15.6">
       <c r="A76" s="86"/>
       <c r="B76" s="94"/>
-      <c r="C76" s="218" t="s">
+      <c r="C76" s="250" t="s">
         <v>245</v>
       </c>
-      <c r="D76" s="218"/>
-      <c r="E76" s="218"/>
-      <c r="F76" s="218"/>
-      <c r="G76" s="218"/>
-      <c r="H76" s="218"/>
-      <c r="I76" s="218"/>
-      <c r="J76" s="218"/>
-      <c r="K76" s="218"/>
-      <c r="L76" s="218"/>
-      <c r="M76" s="218"/>
+      <c r="D76" s="250"/>
+      <c r="E76" s="250"/>
+      <c r="F76" s="250"/>
+      <c r="G76" s="250"/>
+      <c r="H76" s="250"/>
+      <c r="I76" s="250"/>
+      <c r="J76" s="250"/>
+      <c r="K76" s="250"/>
+      <c r="L76" s="250"/>
+      <c r="M76" s="250"/>
       <c r="N76" s="44"/>
     </row>
     <row r="77" spans="1:14" ht="15.6">
@@ -6379,19 +6379,19 @@
     <row r="78" spans="1:14" ht="15.6">
       <c r="A78" s="86"/>
       <c r="B78" s="94"/>
-      <c r="C78" s="218" t="s">
+      <c r="C78" s="250" t="s">
         <v>246</v>
       </c>
-      <c r="D78" s="218"/>
-      <c r="E78" s="218"/>
-      <c r="F78" s="218"/>
-      <c r="G78" s="218"/>
-      <c r="H78" s="218"/>
-      <c r="I78" s="218"/>
-      <c r="J78" s="218"/>
-      <c r="K78" s="218"/>
-      <c r="L78" s="218"/>
-      <c r="M78" s="218"/>
+      <c r="D78" s="250"/>
+      <c r="E78" s="250"/>
+      <c r="F78" s="250"/>
+      <c r="G78" s="250"/>
+      <c r="H78" s="250"/>
+      <c r="I78" s="250"/>
+      <c r="J78" s="250"/>
+      <c r="K78" s="250"/>
+      <c r="L78" s="250"/>
+      <c r="M78" s="250"/>
       <c r="N78" s="44"/>
     </row>
     <row r="79" spans="1:14" ht="15.6">
@@ -6480,269 +6480,269 @@
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="86"/>
-      <c r="B84" s="220" t="s">
+      <c r="B84" s="258" t="s">
         <v>230</v>
       </c>
-      <c r="C84" s="221"/>
-      <c r="D84" s="221"/>
-      <c r="E84" s="221"/>
-      <c r="F84" s="221"/>
-      <c r="G84" s="221"/>
-      <c r="H84" s="221"/>
-      <c r="I84" s="221"/>
-      <c r="J84" s="221"/>
-      <c r="K84" s="221"/>
-      <c r="L84" s="221"/>
-      <c r="M84" s="221"/>
+      <c r="C84" s="259"/>
+      <c r="D84" s="259"/>
+      <c r="E84" s="259"/>
+      <c r="F84" s="259"/>
+      <c r="G84" s="259"/>
+      <c r="H84" s="259"/>
+      <c r="I84" s="259"/>
+      <c r="J84" s="259"/>
+      <c r="K84" s="259"/>
+      <c r="L84" s="259"/>
+      <c r="M84" s="259"/>
       <c r="N84" s="91"/>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="86"/>
-      <c r="B85" s="221"/>
-      <c r="C85" s="221"/>
-      <c r="D85" s="221"/>
-      <c r="E85" s="221"/>
-      <c r="F85" s="221"/>
-      <c r="G85" s="221"/>
-      <c r="H85" s="221"/>
-      <c r="I85" s="221"/>
-      <c r="J85" s="221"/>
-      <c r="K85" s="221"/>
-      <c r="L85" s="221"/>
-      <c r="M85" s="221"/>
+      <c r="B85" s="259"/>
+      <c r="C85" s="259"/>
+      <c r="D85" s="259"/>
+      <c r="E85" s="259"/>
+      <c r="F85" s="259"/>
+      <c r="G85" s="259"/>
+      <c r="H85" s="259"/>
+      <c r="I85" s="259"/>
+      <c r="J85" s="259"/>
+      <c r="K85" s="259"/>
+      <c r="L85" s="259"/>
+      <c r="M85" s="259"/>
       <c r="N85" s="44"/>
       <c r="O85" s="55"/>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="86"/>
-      <c r="B86" s="221"/>
-      <c r="C86" s="221"/>
-      <c r="D86" s="221"/>
-      <c r="E86" s="221"/>
-      <c r="F86" s="221"/>
-      <c r="G86" s="221"/>
-      <c r="H86" s="221"/>
-      <c r="I86" s="221"/>
-      <c r="J86" s="221"/>
-      <c r="K86" s="221"/>
-      <c r="L86" s="221"/>
-      <c r="M86" s="221"/>
+      <c r="B86" s="259"/>
+      <c r="C86" s="259"/>
+      <c r="D86" s="259"/>
+      <c r="E86" s="259"/>
+      <c r="F86" s="259"/>
+      <c r="G86" s="259"/>
+      <c r="H86" s="259"/>
+      <c r="I86" s="259"/>
+      <c r="J86" s="259"/>
+      <c r="K86" s="259"/>
+      <c r="L86" s="259"/>
+      <c r="M86" s="259"/>
       <c r="N86" s="44"/>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="86"/>
-      <c r="B87" s="220" t="s">
+      <c r="B87" s="258" t="s">
         <v>231</v>
       </c>
-      <c r="C87" s="221"/>
-      <c r="D87" s="221"/>
-      <c r="E87" s="221"/>
-      <c r="F87" s="221"/>
-      <c r="G87" s="221"/>
-      <c r="H87" s="221"/>
-      <c r="I87" s="221"/>
-      <c r="J87" s="221"/>
-      <c r="K87" s="221"/>
-      <c r="L87" s="221"/>
-      <c r="M87" s="221"/>
+      <c r="C87" s="259"/>
+      <c r="D87" s="259"/>
+      <c r="E87" s="259"/>
+      <c r="F87" s="259"/>
+      <c r="G87" s="259"/>
+      <c r="H87" s="259"/>
+      <c r="I87" s="259"/>
+      <c r="J87" s="259"/>
+      <c r="K87" s="259"/>
+      <c r="L87" s="259"/>
+      <c r="M87" s="259"/>
       <c r="N87" s="91"/>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="86"/>
-      <c r="B88" s="221"/>
-      <c r="C88" s="221"/>
-      <c r="D88" s="221"/>
-      <c r="E88" s="221"/>
-      <c r="F88" s="221"/>
-      <c r="G88" s="221"/>
-      <c r="H88" s="221"/>
-      <c r="I88" s="221"/>
-      <c r="J88" s="221"/>
-      <c r="K88" s="221"/>
-      <c r="L88" s="221"/>
-      <c r="M88" s="221"/>
+      <c r="B88" s="259"/>
+      <c r="C88" s="259"/>
+      <c r="D88" s="259"/>
+      <c r="E88" s="259"/>
+      <c r="F88" s="259"/>
+      <c r="G88" s="259"/>
+      <c r="H88" s="259"/>
+      <c r="I88" s="259"/>
+      <c r="J88" s="259"/>
+      <c r="K88" s="259"/>
+      <c r="L88" s="259"/>
+      <c r="M88" s="259"/>
       <c r="N88" s="44"/>
       <c r="O88" s="55"/>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="86"/>
-      <c r="B89" s="221"/>
-      <c r="C89" s="221"/>
-      <c r="D89" s="221"/>
-      <c r="E89" s="221"/>
-      <c r="F89" s="221"/>
-      <c r="G89" s="221"/>
-      <c r="H89" s="221"/>
-      <c r="I89" s="221"/>
-      <c r="J89" s="221"/>
-      <c r="K89" s="221"/>
-      <c r="L89" s="221"/>
-      <c r="M89" s="221"/>
+      <c r="B89" s="259"/>
+      <c r="C89" s="259"/>
+      <c r="D89" s="259"/>
+      <c r="E89" s="259"/>
+      <c r="F89" s="259"/>
+      <c r="G89" s="259"/>
+      <c r="H89" s="259"/>
+      <c r="I89" s="259"/>
+      <c r="J89" s="259"/>
+      <c r="K89" s="259"/>
+      <c r="L89" s="259"/>
+      <c r="M89" s="259"/>
       <c r="N89" s="44"/>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="86"/>
-      <c r="B90" s="222" t="s">
+      <c r="B90" s="260" t="s">
         <v>233</v>
       </c>
-      <c r="C90" s="223"/>
-      <c r="D90" s="223"/>
-      <c r="E90" s="223"/>
-      <c r="F90" s="223"/>
-      <c r="G90" s="223"/>
-      <c r="H90" s="223"/>
-      <c r="I90" s="223"/>
-      <c r="J90" s="223"/>
-      <c r="K90" s="223"/>
-      <c r="L90" s="223"/>
-      <c r="M90" s="223"/>
+      <c r="C90" s="261"/>
+      <c r="D90" s="261"/>
+      <c r="E90" s="261"/>
+      <c r="F90" s="261"/>
+      <c r="G90" s="261"/>
+      <c r="H90" s="261"/>
+      <c r="I90" s="261"/>
+      <c r="J90" s="261"/>
+      <c r="K90" s="261"/>
+      <c r="L90" s="261"/>
+      <c r="M90" s="261"/>
       <c r="N90" s="44"/>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="86"/>
-      <c r="B91" s="223"/>
-      <c r="C91" s="223"/>
-      <c r="D91" s="223"/>
-      <c r="E91" s="223"/>
-      <c r="F91" s="223"/>
-      <c r="G91" s="223"/>
-      <c r="H91" s="223"/>
-      <c r="I91" s="223"/>
-      <c r="J91" s="223"/>
-      <c r="K91" s="223"/>
-      <c r="L91" s="223"/>
-      <c r="M91" s="223"/>
+      <c r="B91" s="261"/>
+      <c r="C91" s="261"/>
+      <c r="D91" s="261"/>
+      <c r="E91" s="261"/>
+      <c r="F91" s="261"/>
+      <c r="G91" s="261"/>
+      <c r="H91" s="261"/>
+      <c r="I91" s="261"/>
+      <c r="J91" s="261"/>
+      <c r="K91" s="261"/>
+      <c r="L91" s="261"/>
+      <c r="M91" s="261"/>
       <c r="N91" s="44"/>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="86"/>
-      <c r="B92" s="223"/>
-      <c r="C92" s="223"/>
-      <c r="D92" s="223"/>
-      <c r="E92" s="223"/>
-      <c r="F92" s="223"/>
-      <c r="G92" s="223"/>
-      <c r="H92" s="223"/>
-      <c r="I92" s="223"/>
-      <c r="J92" s="223"/>
-      <c r="K92" s="223"/>
-      <c r="L92" s="223"/>
-      <c r="M92" s="223"/>
+      <c r="B92" s="261"/>
+      <c r="C92" s="261"/>
+      <c r="D92" s="261"/>
+      <c r="E92" s="261"/>
+      <c r="F92" s="261"/>
+      <c r="G92" s="261"/>
+      <c r="H92" s="261"/>
+      <c r="I92" s="261"/>
+      <c r="J92" s="261"/>
+      <c r="K92" s="261"/>
+      <c r="L92" s="261"/>
+      <c r="M92" s="261"/>
       <c r="N92" s="44"/>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="86"/>
-      <c r="B93" s="223"/>
-      <c r="C93" s="223"/>
-      <c r="D93" s="223"/>
-      <c r="E93" s="223"/>
-      <c r="F93" s="223"/>
-      <c r="G93" s="223"/>
-      <c r="H93" s="223"/>
-      <c r="I93" s="223"/>
-      <c r="J93" s="223"/>
-      <c r="K93" s="223"/>
-      <c r="L93" s="223"/>
-      <c r="M93" s="223"/>
+      <c r="B93" s="261"/>
+      <c r="C93" s="261"/>
+      <c r="D93" s="261"/>
+      <c r="E93" s="261"/>
+      <c r="F93" s="261"/>
+      <c r="G93" s="261"/>
+      <c r="H93" s="261"/>
+      <c r="I93" s="261"/>
+      <c r="J93" s="261"/>
+      <c r="K93" s="261"/>
+      <c r="L93" s="261"/>
+      <c r="M93" s="261"/>
       <c r="N93" s="44"/>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="86"/>
-      <c r="B94" s="223"/>
-      <c r="C94" s="223"/>
-      <c r="D94" s="223"/>
-      <c r="E94" s="223"/>
-      <c r="F94" s="223"/>
-      <c r="G94" s="223"/>
-      <c r="H94" s="223"/>
-      <c r="I94" s="223"/>
-      <c r="J94" s="223"/>
-      <c r="K94" s="223"/>
-      <c r="L94" s="223"/>
-      <c r="M94" s="223"/>
+      <c r="B94" s="261"/>
+      <c r="C94" s="261"/>
+      <c r="D94" s="261"/>
+      <c r="E94" s="261"/>
+      <c r="F94" s="261"/>
+      <c r="G94" s="261"/>
+      <c r="H94" s="261"/>
+      <c r="I94" s="261"/>
+      <c r="J94" s="261"/>
+      <c r="K94" s="261"/>
+      <c r="L94" s="261"/>
+      <c r="M94" s="261"/>
       <c r="N94" s="44"/>
     </row>
     <row r="95" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A95" s="224"/>
-      <c r="B95" s="225"/>
-      <c r="C95" s="225"/>
-      <c r="D95" s="225"/>
-      <c r="E95" s="225"/>
-      <c r="F95" s="225"/>
-      <c r="G95" s="225"/>
-      <c r="H95" s="225"/>
-      <c r="I95" s="225"/>
-      <c r="J95" s="225"/>
-      <c r="K95" s="225"/>
-      <c r="L95" s="225"/>
-      <c r="M95" s="225"/>
-      <c r="N95" s="225"/>
+      <c r="A95" s="262"/>
+      <c r="B95" s="263"/>
+      <c r="C95" s="263"/>
+      <c r="D95" s="263"/>
+      <c r="E95" s="263"/>
+      <c r="F95" s="263"/>
+      <c r="G95" s="263"/>
+      <c r="H95" s="263"/>
+      <c r="I95" s="263"/>
+      <c r="J95" s="263"/>
+      <c r="K95" s="263"/>
+      <c r="L95" s="263"/>
+      <c r="M95" s="263"/>
+      <c r="N95" s="263"/>
     </row>
     <row r="96" spans="1:15" ht="15" customHeight="1">
-      <c r="A96" s="224"/>
-      <c r="B96" s="225"/>
-      <c r="C96" s="225"/>
-      <c r="D96" s="225"/>
-      <c r="E96" s="225"/>
-      <c r="F96" s="225"/>
-      <c r="G96" s="225"/>
-      <c r="H96" s="225"/>
-      <c r="I96" s="225"/>
-      <c r="J96" s="225"/>
-      <c r="K96" s="225"/>
-      <c r="L96" s="225"/>
-      <c r="M96" s="225"/>
-      <c r="N96" s="225"/>
+      <c r="A96" s="262"/>
+      <c r="B96" s="263"/>
+      <c r="C96" s="263"/>
+      <c r="D96" s="263"/>
+      <c r="E96" s="263"/>
+      <c r="F96" s="263"/>
+      <c r="G96" s="263"/>
+      <c r="H96" s="263"/>
+      <c r="I96" s="263"/>
+      <c r="J96" s="263"/>
+      <c r="K96" s="263"/>
+      <c r="L96" s="263"/>
+      <c r="M96" s="263"/>
+      <c r="N96" s="263"/>
     </row>
     <row r="97" spans="1:14">
-      <c r="A97" s="226" t="s">
+      <c r="A97" s="255" t="s">
         <v>232</v>
       </c>
-      <c r="B97" s="226"/>
-      <c r="C97" s="226"/>
-      <c r="D97" s="226"/>
-      <c r="E97" s="226"/>
-      <c r="F97" s="226"/>
-      <c r="G97" s="226"/>
-      <c r="H97" s="226"/>
-      <c r="I97" s="226"/>
-      <c r="J97" s="226"/>
-      <c r="K97" s="226"/>
-      <c r="L97" s="226"/>
-      <c r="M97" s="226"/>
-      <c r="N97" s="226"/>
+      <c r="B97" s="255"/>
+      <c r="C97" s="255"/>
+      <c r="D97" s="255"/>
+      <c r="E97" s="255"/>
+      <c r="F97" s="255"/>
+      <c r="G97" s="255"/>
+      <c r="H97" s="255"/>
+      <c r="I97" s="255"/>
+      <c r="J97" s="255"/>
+      <c r="K97" s="255"/>
+      <c r="L97" s="255"/>
+      <c r="M97" s="255"/>
+      <c r="N97" s="255"/>
     </row>
     <row r="98" spans="1:14" ht="16.2" customHeight="1">
-      <c r="A98" s="226"/>
-      <c r="B98" s="226"/>
-      <c r="C98" s="226"/>
-      <c r="D98" s="226"/>
-      <c r="E98" s="226"/>
-      <c r="F98" s="226"/>
-      <c r="G98" s="226"/>
-      <c r="H98" s="226"/>
-      <c r="I98" s="226"/>
-      <c r="J98" s="226"/>
-      <c r="K98" s="226"/>
-      <c r="L98" s="226"/>
-      <c r="M98" s="226"/>
-      <c r="N98" s="226"/>
+      <c r="A98" s="255"/>
+      <c r="B98" s="255"/>
+      <c r="C98" s="255"/>
+      <c r="D98" s="255"/>
+      <c r="E98" s="255"/>
+      <c r="F98" s="255"/>
+      <c r="G98" s="255"/>
+      <c r="H98" s="255"/>
+      <c r="I98" s="255"/>
+      <c r="J98" s="255"/>
+      <c r="K98" s="255"/>
+      <c r="L98" s="255"/>
+      <c r="M98" s="255"/>
+      <c r="N98" s="255"/>
     </row>
     <row r="99" spans="1:14" ht="16.2" customHeight="1">
-      <c r="A99" s="226"/>
-      <c r="B99" s="226"/>
-      <c r="C99" s="226"/>
-      <c r="D99" s="226"/>
-      <c r="E99" s="226"/>
-      <c r="F99" s="226"/>
-      <c r="G99" s="226"/>
-      <c r="H99" s="226"/>
-      <c r="I99" s="226"/>
-      <c r="J99" s="226"/>
-      <c r="K99" s="226"/>
-      <c r="L99" s="226"/>
-      <c r="M99" s="226"/>
-      <c r="N99" s="226"/>
+      <c r="A99" s="255"/>
+      <c r="B99" s="255"/>
+      <c r="C99" s="255"/>
+      <c r="D99" s="255"/>
+      <c r="E99" s="255"/>
+      <c r="F99" s="255"/>
+      <c r="G99" s="255"/>
+      <c r="H99" s="255"/>
+      <c r="I99" s="255"/>
+      <c r="J99" s="255"/>
+      <c r="K99" s="255"/>
+      <c r="L99" s="255"/>
+      <c r="M99" s="255"/>
+      <c r="N99" s="255"/>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="2"/>
@@ -6782,22 +6782,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N8"/>
-    <mergeCell ref="B22:M23"/>
-    <mergeCell ref="B24:M25"/>
-    <mergeCell ref="A16:N18"/>
-    <mergeCell ref="A10:N15"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="A19:N21"/>
-    <mergeCell ref="A97:N99"/>
-    <mergeCell ref="B38:M39"/>
-    <mergeCell ref="B40:M41"/>
-    <mergeCell ref="B50:M54"/>
-    <mergeCell ref="B84:M86"/>
-    <mergeCell ref="B55:M56"/>
-    <mergeCell ref="C57:M57"/>
     <mergeCell ref="B26:M27"/>
     <mergeCell ref="B69:M73"/>
     <mergeCell ref="B87:M89"/>
@@ -6808,6 +6792,22 @@
     <mergeCell ref="C76:M76"/>
     <mergeCell ref="C78:M78"/>
     <mergeCell ref="B42:M43"/>
+    <mergeCell ref="A97:N99"/>
+    <mergeCell ref="B38:M39"/>
+    <mergeCell ref="B40:M41"/>
+    <mergeCell ref="B50:M54"/>
+    <mergeCell ref="B84:M86"/>
+    <mergeCell ref="B55:M56"/>
+    <mergeCell ref="C57:M57"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N8"/>
+    <mergeCell ref="B22:M23"/>
+    <mergeCell ref="B24:M25"/>
+    <mergeCell ref="A16:N18"/>
+    <mergeCell ref="A10:N15"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="A19:N21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -6820,8 +6820,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="B1:D172"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H19" activeCellId="1" sqref="B10:D12 H19"/>
+    <sheetView showGridLines="0" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -6833,102 +6833,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="21">
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="248"/>
     </row>
     <row r="2" spans="2:4" ht="14.55" customHeight="1">
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
+      <c r="B2" s="249"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="229"/>
-      <c r="C3" s="229"/>
-      <c r="D3" s="229"/>
+      <c r="B3" s="249"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="229"/>
-      <c r="C4" s="229"/>
-      <c r="D4" s="229"/>
+      <c r="B4" s="249"/>
+      <c r="C4" s="249"/>
+      <c r="D4" s="249"/>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="229"/>
-      <c r="C5" s="229"/>
-      <c r="D5" s="229"/>
+      <c r="B5" s="249"/>
+      <c r="C5" s="249"/>
+      <c r="D5" s="249"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="229"/>
-      <c r="C6" s="229"/>
-      <c r="D6" s="229"/>
+      <c r="B6" s="249"/>
+      <c r="C6" s="249"/>
+      <c r="D6" s="249"/>
     </row>
     <row r="7" spans="2:4" ht="10.050000000000001" customHeight="1">
-      <c r="B7" s="229"/>
-      <c r="C7" s="229"/>
-      <c r="D7" s="229"/>
+      <c r="B7" s="249"/>
+      <c r="C7" s="249"/>
+      <c r="D7" s="249"/>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="229"/>
-      <c r="C8" s="229"/>
-      <c r="D8" s="229"/>
+      <c r="B8" s="249"/>
+      <c r="C8" s="249"/>
+      <c r="D8" s="249"/>
     </row>
     <row r="9" spans="2:4" ht="21">
       <c r="B9" s="197" t="str">
         <f>HYPERLINK("https://fennex.agency/","Visite Fennex Agency")</f>
         <v>Visite Fennex Agency</v>
       </c>
-      <c r="C9" s="232" t="str">
+      <c r="C9" s="253" t="str">
         <f>HYPERLINK("https://blog.fennex.agency/","Visite Fennex Blog")</f>
         <v>Visite Fennex Blog</v>
       </c>
-      <c r="D9" s="232"/>
+      <c r="D9" s="253"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="384" t="s">
+      <c r="B10" s="278" t="s">
         <v>293</v>
       </c>
-      <c r="C10" s="384"/>
-      <c r="D10" s="384"/>
+      <c r="C10" s="278"/>
+      <c r="D10" s="278"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="384"/>
-      <c r="C11" s="384"/>
-      <c r="D11" s="384"/>
+      <c r="B11" s="278"/>
+      <c r="C11" s="278"/>
+      <c r="D11" s="278"/>
     </row>
     <row r="12" spans="2:4" ht="15" thickBot="1">
-      <c r="B12" s="385"/>
-      <c r="C12" s="385"/>
-      <c r="D12" s="385"/>
+      <c r="B12" s="279"/>
+      <c r="C12" s="279"/>
+      <c r="D12" s="279"/>
     </row>
     <row r="13" spans="2:4" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B13" s="245" t="s">
+      <c r="B13" s="276" t="s">
         <v>286</v>
       </c>
-      <c r="C13" s="242" t="s">
+      <c r="C13" s="273" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="233" t="s">
+      <c r="D13" s="264" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="14.55" customHeight="1" thickBot="1">
-      <c r="B14" s="245"/>
-      <c r="C14" s="243"/>
-      <c r="D14" s="234"/>
+      <c r="B14" s="276"/>
+      <c r="C14" s="274"/>
+      <c r="D14" s="265"/>
     </row>
     <row r="15" spans="2:4" ht="15" customHeight="1" thickBot="1">
-      <c r="B15" s="245"/>
-      <c r="C15" s="244"/>
-      <c r="D15" s="235"/>
-    </row>
-    <row r="16" spans="2:4" s="382" customFormat="1" ht="36" customHeight="1" thickBot="1">
-      <c r="B16" s="381" t="s">
+      <c r="B15" s="276"/>
+      <c r="C15" s="275"/>
+      <c r="D15" s="266"/>
+    </row>
+    <row r="16" spans="2:4" s="246" customFormat="1" ht="36" customHeight="1" thickBot="1">
+      <c r="B16" s="245" t="s">
         <v>287</v>
       </c>
       <c r="C16" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="383" t="s">
+      <c r="D16" s="247" t="s">
         <v>294</v>
       </c>
     </row>
@@ -6939,7 +6939,7 @@
       <c r="C17" s="204" t="s">
         <v>288</v>
       </c>
-      <c r="D17" s="380"/>
+      <c r="D17" s="244"/>
     </row>
     <row r="18" spans="2:4" ht="30" customHeight="1" thickBot="1">
       <c r="B18" s="207" t="s">
@@ -6989,7 +6989,7 @@
       <c r="C23" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="D23" s="383" t="s">
+      <c r="D23" s="247" t="s">
         <v>295</v>
       </c>
     </row>
@@ -7050,7 +7050,7 @@
       <c r="C30" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="D30" s="383" t="s">
+      <c r="D30" s="247" t="s">
         <v>295</v>
       </c>
     </row>
@@ -7223,11 +7223,11 @@
       <c r="D50" s="211"/>
     </row>
     <row r="51" spans="2:4" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="236" t="s">
+      <c r="B51" s="267" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="237"/>
-      <c r="D51" s="238"/>
+      <c r="C51" s="268"/>
+      <c r="D51" s="269"/>
     </row>
     <row r="52" spans="2:4" ht="30" customHeight="1" thickBot="1">
       <c r="B52" s="200" t="s">
@@ -7260,7 +7260,7 @@
       <c r="B55" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="C55" s="246" t="s">
+      <c r="C55" s="277" t="s">
         <v>288</v>
       </c>
       <c r="D55" s="208"/>
@@ -7269,14 +7269,14 @@
       <c r="B56" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="C56" s="246"/>
+      <c r="C56" s="277"/>
       <c r="D56" s="208"/>
     </row>
     <row r="57" spans="2:4" ht="30" customHeight="1" thickBot="1">
       <c r="B57" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="C57" s="246"/>
+      <c r="C57" s="277"/>
       <c r="D57" s="208"/>
     </row>
     <row r="58" spans="2:4" ht="30" customHeight="1" thickBot="1">
@@ -7326,11 +7326,11 @@
       <c r="D63" s="211"/>
     </row>
     <row r="64" spans="2:4" ht="30" customHeight="1" thickBot="1">
-      <c r="B64" s="236" t="s">
+      <c r="B64" s="267" t="s">
         <v>93</v>
       </c>
-      <c r="C64" s="237"/>
-      <c r="D64" s="238"/>
+      <c r="C64" s="268"/>
+      <c r="D64" s="269"/>
     </row>
     <row r="65" spans="2:4" ht="30" customHeight="1" thickBot="1">
       <c r="B65" s="200" t="s">
@@ -7399,7 +7399,7 @@
       <c r="B72" s="101" t="s">
         <v>98</v>
       </c>
-      <c r="C72" s="246" t="s">
+      <c r="C72" s="277" t="s">
         <v>288</v>
       </c>
       <c r="D72" s="208"/>
@@ -7408,14 +7408,14 @@
       <c r="B73" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="C73" s="246"/>
+      <c r="C73" s="277"/>
       <c r="D73" s="208"/>
     </row>
     <row r="74" spans="2:4" ht="30" customHeight="1" thickBot="1">
       <c r="B74" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="C74" s="246"/>
+      <c r="C74" s="277"/>
       <c r="D74" s="208"/>
     </row>
     <row r="75" spans="2:4" ht="30" customHeight="1" thickBot="1">
@@ -7633,11 +7633,11 @@
       <c r="D100" s="211"/>
     </row>
     <row r="101" spans="2:4" ht="30" customHeight="1" thickBot="1">
-      <c r="B101" s="236" t="s">
+      <c r="B101" s="267" t="s">
         <v>120</v>
       </c>
-      <c r="C101" s="237"/>
-      <c r="D101" s="238"/>
+      <c r="C101" s="268"/>
+      <c r="D101" s="269"/>
     </row>
     <row r="102" spans="2:4" ht="30" customHeight="1" thickBot="1">
       <c r="B102" s="200" t="s">
@@ -7803,11 +7803,11 @@
       <c r="D120" s="211"/>
     </row>
     <row r="121" spans="2:4" ht="30" customHeight="1" thickBot="1">
-      <c r="B121" s="236" t="s">
+      <c r="B121" s="267" t="s">
         <v>134</v>
       </c>
-      <c r="C121" s="237"/>
-      <c r="D121" s="238"/>
+      <c r="C121" s="268"/>
+      <c r="D121" s="269"/>
     </row>
     <row r="122" spans="2:4" ht="30" customHeight="1" thickBot="1">
       <c r="B122" s="200" t="s">
@@ -7896,11 +7896,11 @@
       <c r="D131" s="211"/>
     </row>
     <row r="132" spans="2:4" ht="30" customHeight="1" thickBot="1">
-      <c r="B132" s="236" t="s">
+      <c r="B132" s="267" t="s">
         <v>143</v>
       </c>
-      <c r="C132" s="237"/>
-      <c r="D132" s="238"/>
+      <c r="C132" s="268"/>
+      <c r="D132" s="269"/>
     </row>
     <row r="133" spans="2:4" ht="30" customHeight="1" thickBot="1">
       <c r="B133" s="200" t="s">
@@ -8071,9 +8071,9 @@
       <c r="D152" s="211"/>
     </row>
     <row r="153" spans="2:4" ht="30" customHeight="1" thickBot="1">
-      <c r="B153" s="239"/>
-      <c r="C153" s="240"/>
-      <c r="D153" s="241"/>
+      <c r="B153" s="270"/>
+      <c r="C153" s="271"/>
+      <c r="D153" s="272"/>
     </row>
     <row r="154" spans="2:4">
       <c r="B154"/>
@@ -8128,21 +8128,21 @@
       </c>
     </row>
     <row r="169" spans="2:4">
-      <c r="B169" s="226" t="s">
+      <c r="B169" s="255" t="s">
         <v>232</v>
       </c>
-      <c r="C169" s="226"/>
-      <c r="D169" s="226"/>
+      <c r="C169" s="255"/>
+      <c r="D169" s="255"/>
     </row>
     <row r="170" spans="2:4">
-      <c r="B170" s="226"/>
-      <c r="C170" s="226"/>
-      <c r="D170" s="226"/>
+      <c r="B170" s="255"/>
+      <c r="C170" s="255"/>
+      <c r="D170" s="255"/>
     </row>
     <row r="171" spans="2:4">
-      <c r="B171" s="226"/>
-      <c r="C171" s="226"/>
-      <c r="D171" s="226"/>
+      <c r="B171" s="255"/>
+      <c r="C171" s="255"/>
+      <c r="D171" s="255"/>
     </row>
     <row r="172" spans="2:4">
       <c r="B172"/>
@@ -8201,62 +8201,62 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="53.109375" style="57" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="372" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="237" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="103"/>
-      <c r="B1" s="368"/>
+      <c r="B1" s="233"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
       <c r="E1" s="89"/>
     </row>
     <row r="2" spans="1:6" ht="21" customHeight="1">
       <c r="A2" s="104"/>
-      <c r="B2" s="369"/>
+      <c r="B2" s="234"/>
       <c r="C2" s="90"/>
       <c r="D2" s="90"/>
       <c r="E2" s="90"/>
     </row>
     <row r="3" spans="1:6" ht="14.4" customHeight="1">
       <c r="A3" s="104"/>
-      <c r="B3" s="369"/>
+      <c r="B3" s="234"/>
       <c r="C3" s="90"/>
       <c r="D3" s="90"/>
       <c r="E3" s="90"/>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
       <c r="A4" s="104"/>
-      <c r="B4" s="369"/>
+      <c r="B4" s="234"/>
       <c r="C4" s="90"/>
       <c r="D4" s="90"/>
       <c r="E4" s="90"/>
     </row>
     <row r="5" spans="1:6" ht="14.4" customHeight="1">
       <c r="A5" s="104"/>
-      <c r="B5" s="369"/>
+      <c r="B5" s="234"/>
       <c r="C5" s="90"/>
       <c r="D5" s="90"/>
       <c r="E5" s="90"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1">
       <c r="A6" s="104"/>
-      <c r="B6" s="369"/>
+      <c r="B6" s="234"/>
       <c r="C6" s="90"/>
       <c r="D6" s="90"/>
       <c r="E6" s="90"/>
     </row>
     <row r="7" spans="1:6" ht="14.4" customHeight="1">
       <c r="A7" s="104"/>
-      <c r="B7" s="369"/>
+      <c r="B7" s="234"/>
       <c r="C7" s="90"/>
       <c r="D7" s="90"/>
       <c r="E7" s="90"/>
     </row>
     <row r="8" spans="1:6" ht="14.4" customHeight="1">
       <c r="A8" s="104"/>
-      <c r="B8" s="369"/>
+      <c r="B8" s="234"/>
       <c r="C8" s="90"/>
       <c r="D8" s="90"/>
       <c r="E8" s="90"/>
@@ -8266,13 +8266,13 @@
         <f>HYPERLINK("https://fennex.agency/","Visite Fennex Agency")</f>
         <v>Visite Fennex Agency</v>
       </c>
-      <c r="B9" s="247" t="str">
+      <c r="B9" s="280" t="str">
         <f>HYPERLINK("https://blog.fennex.agency/","Visite Fennex Blog")</f>
         <v>Visite Fennex Blog</v>
       </c>
-      <c r="C9" s="247"/>
-      <c r="D9" s="247"/>
-      <c r="E9" s="247"/>
+      <c r="C9" s="280"/>
+      <c r="D9" s="280"/>
+      <c r="E9" s="280"/>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="88"/>
@@ -8281,561 +8281,561 @@
       <c r="B11" s="88"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A12" s="250" t="s">
+      <c r="A12" s="283" t="s">
         <v>223</v>
       </c>
-      <c r="B12" s="251"/>
-      <c r="C12" s="251"/>
-      <c r="D12" s="251"/>
-      <c r="E12" s="251"/>
-      <c r="F12" s="353"/>
+      <c r="B12" s="284"/>
+      <c r="C12" s="284"/>
+      <c r="D12" s="284"/>
+      <c r="E12" s="284"/>
+      <c r="F12" s="218"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1">
-      <c r="A13" s="354" t="s">
+      <c r="A13" s="219" t="s">
         <v>224</v>
       </c>
-      <c r="B13" s="370" t="s">
+      <c r="B13" s="235" t="s">
         <v>197</v>
       </c>
-      <c r="C13" s="355"/>
-      <c r="D13" s="356"/>
-      <c r="E13" s="353"/>
-      <c r="F13" s="353"/>
+      <c r="C13" s="220"/>
+      <c r="D13" s="221"/>
+      <c r="E13" s="218"/>
+      <c r="F13" s="218"/>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A14" s="357" t="s">
+      <c r="A14" s="222" t="s">
         <v>195</v>
       </c>
-      <c r="B14" s="371" t="s">
+      <c r="B14" s="236" t="s">
         <v>194</v>
       </c>
-      <c r="C14" s="358" t="s">
+      <c r="C14" s="223" t="s">
         <v>195</v>
       </c>
-      <c r="D14" s="359" t="s">
+      <c r="D14" s="224" t="s">
         <v>196</v>
       </c>
-      <c r="E14" s="353"/>
-      <c r="F14" s="353"/>
+      <c r="E14" s="218"/>
+      <c r="F14" s="218"/>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A15" s="360"/>
-      <c r="C15" s="353"/>
-      <c r="D15" s="353"/>
-      <c r="E15" s="353"/>
-      <c r="F15" s="353"/>
+      <c r="A15" s="225"/>
+      <c r="C15" s="218"/>
+      <c r="D15" s="218"/>
+      <c r="E15" s="218"/>
+      <c r="F15" s="218"/>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1">
-      <c r="A16" s="354" t="s">
+      <c r="A16" s="219" t="s">
         <v>225</v>
       </c>
-      <c r="B16" s="370" t="s">
+      <c r="B16" s="235" t="s">
         <v>198</v>
       </c>
-      <c r="C16" s="355"/>
-      <c r="D16" s="356"/>
-      <c r="E16" s="353"/>
-      <c r="F16" s="353"/>
+      <c r="C16" s="220"/>
+      <c r="D16" s="221"/>
+      <c r="E16" s="218"/>
+      <c r="F16" s="218"/>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A17" s="357" t="s">
+      <c r="A17" s="222" t="s">
         <v>261</v>
       </c>
-      <c r="B17" s="373" t="s">
+      <c r="B17" s="238" t="s">
         <v>199</v>
       </c>
-      <c r="C17" s="361" t="s">
+      <c r="C17" s="226" t="s">
         <v>261</v>
       </c>
-      <c r="D17" s="362"/>
-      <c r="E17" s="353"/>
-      <c r="F17" s="353"/>
+      <c r="D17" s="227"/>
+      <c r="E17" s="218"/>
+      <c r="F17" s="218"/>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A18" s="360"/>
-      <c r="C18" s="353"/>
-      <c r="D18" s="353"/>
-      <c r="E18" s="353"/>
-      <c r="F18" s="353"/>
+      <c r="A18" s="225"/>
+      <c r="C18" s="218"/>
+      <c r="D18" s="218"/>
+      <c r="E18" s="218"/>
+      <c r="F18" s="218"/>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1">
-      <c r="A19" s="354" t="s">
+      <c r="A19" s="219" t="s">
         <v>226</v>
       </c>
-      <c r="B19" s="370" t="s">
+      <c r="B19" s="235" t="s">
         <v>200</v>
       </c>
-      <c r="C19" s="355"/>
-      <c r="D19" s="356"/>
-      <c r="E19" s="353"/>
-      <c r="F19" s="353"/>
+      <c r="C19" s="220"/>
+      <c r="D19" s="221"/>
+      <c r="E19" s="218"/>
+      <c r="F19" s="218"/>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A20" s="357" t="s">
+      <c r="A20" s="222" t="s">
         <v>177</v>
       </c>
-      <c r="B20" s="371" t="s">
+      <c r="B20" s="236" t="s">
         <v>178</v>
       </c>
-      <c r="C20" s="361" t="s">
+      <c r="C20" s="226" t="s">
         <v>177</v>
       </c>
-      <c r="D20" s="362"/>
-      <c r="E20" s="353"/>
-      <c r="F20" s="353"/>
+      <c r="D20" s="227"/>
+      <c r="E20" s="218"/>
+      <c r="F20" s="218"/>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1">
-      <c r="A21" s="360"/>
-      <c r="C21" s="353"/>
-      <c r="D21" s="353"/>
-      <c r="E21" s="353"/>
-      <c r="F21" s="353"/>
+      <c r="A21" s="225"/>
+      <c r="C21" s="218"/>
+      <c r="D21" s="218"/>
+      <c r="E21" s="218"/>
+      <c r="F21" s="218"/>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A22" s="250" t="s">
+      <c r="A22" s="283" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="251"/>
-      <c r="C22" s="251"/>
-      <c r="D22" s="251"/>
-      <c r="E22" s="251"/>
-      <c r="F22" s="353"/>
+      <c r="B22" s="284"/>
+      <c r="C22" s="284"/>
+      <c r="D22" s="284"/>
+      <c r="E22" s="284"/>
+      <c r="F22" s="218"/>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1">
-      <c r="A23" s="363" t="s">
+      <c r="A23" s="228" t="s">
         <v>169</v>
       </c>
-      <c r="B23" s="366" t="str">
+      <c r="B23" s="231" t="str">
         <f>A14</f>
         <v>$</v>
       </c>
-      <c r="C23" s="353"/>
-      <c r="D23" s="353"/>
-      <c r="E23" s="353"/>
-      <c r="F23" s="353"/>
+      <c r="C23" s="218"/>
+      <c r="D23" s="218"/>
+      <c r="E23" s="218"/>
+      <c r="F23" s="218"/>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1">
-      <c r="A24" s="364" t="s">
+      <c r="A24" s="229" t="s">
         <v>170</v>
       </c>
-      <c r="B24" s="374">
+      <c r="B24" s="239">
         <v>20</v>
       </c>
-      <c r="C24" s="353"/>
-      <c r="D24" s="353"/>
-      <c r="E24" s="353"/>
-      <c r="F24" s="353"/>
+      <c r="C24" s="218"/>
+      <c r="D24" s="218"/>
+      <c r="E24" s="218"/>
+      <c r="F24" s="218"/>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A25" s="365" t="s">
+      <c r="A25" s="230" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="375">
+      <c r="B25" s="240">
         <v>50</v>
       </c>
-      <c r="C25" s="353"/>
-      <c r="D25" s="353"/>
-      <c r="E25" s="353"/>
-      <c r="F25" s="353"/>
+      <c r="C25" s="218"/>
+      <c r="D25" s="218"/>
+      <c r="E25" s="218"/>
+      <c r="F25" s="218"/>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A26" s="360"/>
-      <c r="C26" s="353"/>
-      <c r="D26" s="353"/>
-      <c r="E26" s="353"/>
-      <c r="F26" s="353"/>
+      <c r="A26" s="225"/>
+      <c r="C26" s="218"/>
+      <c r="D26" s="218"/>
+      <c r="E26" s="218"/>
+      <c r="F26" s="218"/>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1">
-      <c r="A27" s="363" t="s">
+      <c r="A27" s="228" t="s">
         <v>172</v>
       </c>
-      <c r="B27" s="366" t="str">
+      <c r="B27" s="231" t="str">
         <f>A17</f>
         <v>in</v>
       </c>
-      <c r="C27" s="353"/>
-      <c r="D27" s="353"/>
-      <c r="E27" s="353"/>
-      <c r="F27" s="353"/>
+      <c r="C27" s="218"/>
+      <c r="D27" s="218"/>
+      <c r="E27" s="218"/>
+      <c r="F27" s="218"/>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1">
-      <c r="A28" s="364" t="s">
+      <c r="A28" s="229" t="s">
         <v>173</v>
       </c>
-      <c r="B28" s="374">
+      <c r="B28" s="239">
         <v>18</v>
       </c>
-      <c r="C28" s="353"/>
-      <c r="D28" s="353"/>
-      <c r="E28" s="353"/>
-      <c r="F28" s="353"/>
+      <c r="C28" s="218"/>
+      <c r="D28" s="218"/>
+      <c r="E28" s="218"/>
+      <c r="F28" s="218"/>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1">
-      <c r="A29" s="364" t="s">
+      <c r="A29" s="229" t="s">
         <v>174</v>
       </c>
-      <c r="B29" s="374">
+      <c r="B29" s="239">
         <v>14</v>
       </c>
-      <c r="C29" s="353"/>
-      <c r="D29" s="353"/>
-      <c r="E29" s="353"/>
-      <c r="F29" s="353"/>
+      <c r="C29" s="218"/>
+      <c r="D29" s="218"/>
+      <c r="E29" s="218"/>
+      <c r="F29" s="218"/>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A30" s="365" t="s">
+      <c r="A30" s="230" t="s">
         <v>175</v>
       </c>
-      <c r="B30" s="375">
+      <c r="B30" s="240">
         <v>8</v>
       </c>
-      <c r="C30" s="353"/>
-      <c r="D30" s="353"/>
-      <c r="E30" s="353"/>
-      <c r="F30" s="353"/>
+      <c r="C30" s="218"/>
+      <c r="D30" s="218"/>
+      <c r="E30" s="218"/>
+      <c r="F30" s="218"/>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A31" s="360"/>
-      <c r="C31" s="353"/>
-      <c r="D31" s="353"/>
-      <c r="E31" s="353"/>
-      <c r="F31" s="353"/>
+      <c r="A31" s="225"/>
+      <c r="C31" s="218"/>
+      <c r="D31" s="218"/>
+      <c r="E31" s="218"/>
+      <c r="F31" s="218"/>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1">
-      <c r="A32" s="363" t="s">
+      <c r="A32" s="228" t="s">
         <v>176</v>
       </c>
-      <c r="B32" s="366" t="str">
+      <c r="B32" s="231" t="str">
         <f>A20</f>
         <v>lb</v>
       </c>
-      <c r="C32" s="353"/>
-      <c r="D32" s="353"/>
-      <c r="E32" s="353"/>
-      <c r="F32" s="353"/>
+      <c r="C32" s="218"/>
+      <c r="D32" s="218"/>
+      <c r="E32" s="218"/>
+      <c r="F32" s="218"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A33" s="365" t="s">
+      <c r="A33" s="230" t="s">
         <v>171</v>
       </c>
-      <c r="B33" s="375">
+      <c r="B33" s="240">
         <v>20</v>
       </c>
-      <c r="C33" s="353"/>
-      <c r="D33" s="353"/>
-      <c r="E33" s="353"/>
-      <c r="F33" s="353"/>
+      <c r="C33" s="218"/>
+      <c r="D33" s="218"/>
+      <c r="E33" s="218"/>
+      <c r="F33" s="218"/>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1">
-      <c r="A34" s="360"/>
-      <c r="C34" s="353"/>
-      <c r="D34" s="353"/>
-      <c r="E34" s="353"/>
-      <c r="F34" s="353"/>
+      <c r="A34" s="225"/>
+      <c r="C34" s="218"/>
+      <c r="D34" s="218"/>
+      <c r="E34" s="218"/>
+      <c r="F34" s="218"/>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A35" s="250" t="s">
+      <c r="A35" s="283" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="251"/>
-      <c r="C35" s="251"/>
-      <c r="D35" s="251"/>
-      <c r="E35" s="251"/>
-      <c r="F35" s="353"/>
+      <c r="B35" s="284"/>
+      <c r="C35" s="284"/>
+      <c r="D35" s="284"/>
+      <c r="E35" s="284"/>
+      <c r="F35" s="218"/>
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1">
-      <c r="A36" s="363" t="s">
+      <c r="A36" s="228" t="s">
         <v>179</v>
       </c>
-      <c r="B36" s="366"/>
-      <c r="C36" s="353"/>
-      <c r="D36" s="353"/>
-      <c r="E36" s="353"/>
-      <c r="F36" s="353"/>
+      <c r="B36" s="231"/>
+      <c r="C36" s="218"/>
+      <c r="D36" s="218"/>
+      <c r="E36" s="218"/>
+      <c r="F36" s="218"/>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1">
-      <c r="A37" s="364" t="s">
+      <c r="A37" s="229" t="s">
         <v>181</v>
       </c>
-      <c r="B37" s="374">
+      <c r="B37" s="239">
         <v>10000</v>
       </c>
-      <c r="C37" s="353"/>
-      <c r="D37" s="353"/>
-      <c r="E37" s="353"/>
-      <c r="F37" s="353"/>
+      <c r="C37" s="218"/>
+      <c r="D37" s="218"/>
+      <c r="E37" s="218"/>
+      <c r="F37" s="218"/>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1">
-      <c r="A38" s="364" t="s">
+      <c r="A38" s="229" t="s">
         <v>182</v>
       </c>
-      <c r="B38" s="374">
+      <c r="B38" s="239">
         <v>50000</v>
       </c>
-      <c r="C38" s="353"/>
-      <c r="D38" s="353"/>
-      <c r="E38" s="353"/>
-      <c r="F38" s="353"/>
+      <c r="C38" s="218"/>
+      <c r="D38" s="218"/>
+      <c r="E38" s="218"/>
+      <c r="F38" s="218"/>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A39" s="365" t="s">
+      <c r="A39" s="230" t="s">
         <v>180</v>
       </c>
-      <c r="B39" s="375">
+      <c r="B39" s="240">
         <v>5000</v>
       </c>
-      <c r="C39" s="353"/>
-      <c r="D39" s="353"/>
-      <c r="E39" s="353"/>
-      <c r="F39" s="353"/>
+      <c r="C39" s="218"/>
+      <c r="D39" s="218"/>
+      <c r="E39" s="218"/>
+      <c r="F39" s="218"/>
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A40" s="360"/>
-      <c r="C40" s="353"/>
-      <c r="D40" s="353"/>
-      <c r="E40" s="353"/>
-      <c r="F40" s="353"/>
+      <c r="A40" s="225"/>
+      <c r="C40" s="218"/>
+      <c r="D40" s="218"/>
+      <c r="E40" s="218"/>
+      <c r="F40" s="218"/>
     </row>
     <row r="41" spans="1:6" ht="30" customHeight="1">
-      <c r="A41" s="363" t="s">
+      <c r="A41" s="228" t="s">
         <v>183</v>
       </c>
-      <c r="B41" s="366" t="s">
+      <c r="B41" s="231" t="s">
         <v>186</v>
       </c>
-      <c r="C41" s="353"/>
-      <c r="D41" s="353"/>
-      <c r="E41" s="353"/>
-      <c r="F41" s="353"/>
+      <c r="C41" s="218"/>
+      <c r="D41" s="218"/>
+      <c r="E41" s="218"/>
+      <c r="F41" s="218"/>
     </row>
     <row r="42" spans="1:6" ht="30" customHeight="1">
-      <c r="A42" s="364" t="s">
+      <c r="A42" s="229" t="s">
         <v>185</v>
       </c>
-      <c r="B42" s="374">
+      <c r="B42" s="239">
         <v>100000</v>
       </c>
-      <c r="C42" s="353"/>
-      <c r="D42" s="353"/>
-      <c r="E42" s="353"/>
-      <c r="F42" s="353"/>
+      <c r="C42" s="218"/>
+      <c r="D42" s="218"/>
+      <c r="E42" s="218"/>
+      <c r="F42" s="218"/>
     </row>
     <row r="43" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A43" s="365" t="s">
+      <c r="A43" s="230" t="s">
         <v>184</v>
       </c>
-      <c r="B43" s="375">
+      <c r="B43" s="240">
         <v>200000</v>
       </c>
-      <c r="C43" s="353"/>
-      <c r="D43" s="353"/>
-      <c r="E43" s="353"/>
-      <c r="F43" s="353"/>
+      <c r="C43" s="218"/>
+      <c r="D43" s="218"/>
+      <c r="E43" s="218"/>
+      <c r="F43" s="218"/>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1">
-      <c r="A44" s="360"/>
-      <c r="C44" s="353"/>
-      <c r="D44" s="353"/>
-      <c r="E44" s="353"/>
-      <c r="F44" s="353"/>
+      <c r="A44" s="225"/>
+      <c r="C44" s="218"/>
+      <c r="D44" s="218"/>
+      <c r="E44" s="218"/>
+      <c r="F44" s="218"/>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A45" s="248" t="s">
+      <c r="A45" s="281" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="249"/>
-      <c r="C45" s="249"/>
-      <c r="D45" s="249"/>
-      <c r="E45" s="249"/>
-      <c r="F45" s="353"/>
+      <c r="B45" s="282"/>
+      <c r="C45" s="282"/>
+      <c r="D45" s="282"/>
+      <c r="E45" s="282"/>
+      <c r="F45" s="218"/>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1">
-      <c r="A46" s="363" t="s">
+      <c r="A46" s="228" t="s">
         <v>187</v>
       </c>
-      <c r="B46" s="366" t="s">
+      <c r="B46" s="231" t="s">
         <v>186</v>
       </c>
-      <c r="C46" s="353"/>
-      <c r="D46" s="353"/>
-      <c r="E46" s="353"/>
-      <c r="F46" s="353"/>
+      <c r="C46" s="218"/>
+      <c r="D46" s="218"/>
+      <c r="E46" s="218"/>
+      <c r="F46" s="218"/>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1">
-      <c r="A47" s="364" t="s">
+      <c r="A47" s="229" t="s">
         <v>189</v>
       </c>
-      <c r="B47" s="374">
+      <c r="B47" s="239">
         <v>3000</v>
       </c>
-      <c r="C47" s="353"/>
-      <c r="D47" s="353"/>
-      <c r="E47" s="353"/>
-      <c r="F47" s="353"/>
+      <c r="C47" s="218"/>
+      <c r="D47" s="218"/>
+      <c r="E47" s="218"/>
+      <c r="F47" s="218"/>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A48" s="365" t="s">
+      <c r="A48" s="230" t="s">
         <v>188</v>
       </c>
-      <c r="B48" s="375">
+      <c r="B48" s="240">
         <v>5000</v>
       </c>
-      <c r="C48" s="353"/>
-      <c r="D48" s="353"/>
-      <c r="E48" s="353"/>
-      <c r="F48" s="353"/>
+      <c r="C48" s="218"/>
+      <c r="D48" s="218"/>
+      <c r="E48" s="218"/>
+      <c r="F48" s="218"/>
     </row>
     <row r="49" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A49" s="360"/>
-      <c r="C49" s="353"/>
-      <c r="D49" s="353"/>
-      <c r="E49" s="353"/>
-      <c r="F49" s="353"/>
+      <c r="A49" s="225"/>
+      <c r="C49" s="218"/>
+      <c r="D49" s="218"/>
+      <c r="E49" s="218"/>
+      <c r="F49" s="218"/>
     </row>
     <row r="50" spans="1:6" ht="30" customHeight="1">
-      <c r="A50" s="363" t="s">
+      <c r="A50" s="228" t="s">
         <v>190</v>
       </c>
-      <c r="B50" s="366" t="str">
+      <c r="B50" s="231" t="str">
         <f>A14</f>
         <v>$</v>
       </c>
-      <c r="C50" s="353"/>
-      <c r="D50" s="353"/>
-      <c r="E50" s="353"/>
-      <c r="F50" s="353"/>
+      <c r="C50" s="218"/>
+      <c r="D50" s="218"/>
+      <c r="E50" s="218"/>
+      <c r="F50" s="218"/>
     </row>
     <row r="51" spans="1:6" ht="30" customHeight="1">
-      <c r="A51" s="364" t="s">
+      <c r="A51" s="229" t="s">
         <v>191</v>
       </c>
-      <c r="B51" s="374">
+      <c r="B51" s="239">
         <v>250000</v>
       </c>
-      <c r="C51" s="353"/>
-      <c r="D51" s="353"/>
-      <c r="E51" s="353"/>
-      <c r="F51" s="353"/>
+      <c r="C51" s="218"/>
+      <c r="D51" s="218"/>
+      <c r="E51" s="218"/>
+      <c r="F51" s="218"/>
     </row>
     <row r="52" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A52" s="365" t="s">
+      <c r="A52" s="230" t="s">
         <v>192</v>
       </c>
-      <c r="B52" s="375">
+      <c r="B52" s="240">
         <v>25000</v>
       </c>
-      <c r="C52" s="353"/>
-      <c r="D52" s="353"/>
-      <c r="E52" s="353"/>
-      <c r="F52" s="353"/>
+      <c r="C52" s="218"/>
+      <c r="D52" s="218"/>
+      <c r="E52" s="218"/>
+      <c r="F52" s="218"/>
     </row>
     <row r="53" spans="1:6" ht="30" customHeight="1">
-      <c r="A53" s="360"/>
-      <c r="C53" s="353"/>
-      <c r="D53" s="353"/>
-      <c r="E53" s="353"/>
-      <c r="F53" s="353"/>
+      <c r="A53" s="225"/>
+      <c r="C53" s="218"/>
+      <c r="D53" s="218"/>
+      <c r="E53" s="218"/>
+      <c r="F53" s="218"/>
     </row>
     <row r="54" spans="1:6" ht="30" customHeight="1">
-      <c r="A54" s="248" t="s">
+      <c r="A54" s="281" t="s">
         <v>39</v>
       </c>
-      <c r="B54" s="249"/>
-      <c r="C54" s="249"/>
-      <c r="D54" s="249"/>
-      <c r="E54" s="249"/>
-      <c r="F54" s="353"/>
+      <c r="B54" s="282"/>
+      <c r="C54" s="282"/>
+      <c r="D54" s="282"/>
+      <c r="E54" s="282"/>
+      <c r="F54" s="218"/>
     </row>
     <row r="55" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A55" s="360"/>
-      <c r="C55" s="353"/>
-      <c r="D55" s="353"/>
-      <c r="E55" s="353"/>
-      <c r="F55" s="353"/>
+      <c r="A55" s="225"/>
+      <c r="C55" s="218"/>
+      <c r="D55" s="218"/>
+      <c r="E55" s="218"/>
+      <c r="F55" s="218"/>
     </row>
     <row r="56" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A56" s="363" t="s">
+      <c r="A56" s="228" t="s">
         <v>227</v>
       </c>
-      <c r="B56" s="366" t="s">
+      <c r="B56" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="353"/>
-      <c r="D56" s="353"/>
-      <c r="E56" s="353"/>
-      <c r="F56" s="353"/>
+      <c r="C56" s="218"/>
+      <c r="D56" s="218"/>
+      <c r="E56" s="218"/>
+      <c r="F56" s="218"/>
     </row>
     <row r="57" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A57" s="364" t="s">
+      <c r="A57" s="229" t="s">
         <v>206</v>
       </c>
-      <c r="B57" s="374">
+      <c r="B57" s="239">
         <v>50</v>
       </c>
-      <c r="C57" s="353"/>
+      <c r="C57" s="218"/>
       <c r="D57" s="106" t="s">
         <v>208</v>
       </c>
       <c r="E57" s="107">
         <v>3</v>
       </c>
-      <c r="F57" s="353"/>
+      <c r="F57" s="218"/>
     </row>
     <row r="58" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A58" s="364" t="s">
+      <c r="A58" s="229" t="s">
         <v>203</v>
       </c>
-      <c r="B58" s="374">
+      <c r="B58" s="239">
         <v>250</v>
       </c>
-      <c r="C58" s="353"/>
+      <c r="C58" s="218"/>
       <c r="D58" s="106" t="s">
         <v>210</v>
       </c>
       <c r="E58" s="107">
         <v>3</v>
       </c>
-      <c r="F58" s="353"/>
+      <c r="F58" s="218"/>
     </row>
     <row r="59" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A59" s="364" t="s">
+      <c r="A59" s="229" t="s">
         <v>201</v>
       </c>
-      <c r="B59" s="374">
+      <c r="B59" s="239">
         <v>100</v>
       </c>
-      <c r="C59" s="367"/>
+      <c r="C59" s="232"/>
       <c r="D59" s="88"/>
       <c r="E59" s="88"/>
-      <c r="F59" s="353"/>
+      <c r="F59" s="218"/>
     </row>
     <row r="60" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A60" s="364" t="s">
+      <c r="A60" s="229" t="s">
         <v>207</v>
       </c>
-      <c r="B60" s="374">
+      <c r="B60" s="239">
         <v>50</v>
       </c>
-      <c r="C60" s="353"/>
+      <c r="C60" s="218"/>
       <c r="D60" s="106" t="s">
         <v>209</v>
       </c>
       <c r="E60" s="107">
         <v>5</v>
       </c>
-      <c r="F60" s="353"/>
+      <c r="F60" s="218"/>
     </row>
     <row r="61" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A61" s="365" t="s">
+      <c r="A61" s="230" t="s">
         <v>193</v>
       </c>
-      <c r="B61" s="375">
+      <c r="B61" s="240">
         <v>200</v>
       </c>
-      <c r="C61" s="353"/>
-      <c r="D61" s="353"/>
-      <c r="E61" s="353"/>
-      <c r="F61" s="353"/>
+      <c r="C61" s="218"/>
+      <c r="D61" s="218"/>
+      <c r="E61" s="218"/>
+      <c r="F61" s="218"/>
     </row>
     <row r="62" spans="1:6">
       <c r="B62" s="88"/>
@@ -8850,48 +8850,48 @@
       <c r="B65" s="88"/>
     </row>
     <row r="66" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A66" s="226" t="s">
+      <c r="A66" s="255" t="s">
         <v>232</v>
       </c>
-      <c r="B66" s="226"/>
-      <c r="C66" s="226"/>
-      <c r="D66" s="226"/>
-      <c r="E66" s="226"/>
+      <c r="B66" s="255"/>
+      <c r="C66" s="255"/>
+      <c r="D66" s="255"/>
+      <c r="E66" s="255"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="226"/>
-      <c r="B67" s="226"/>
-      <c r="C67" s="226"/>
-      <c r="D67" s="226"/>
-      <c r="E67" s="226"/>
+      <c r="A67" s="255"/>
+      <c r="B67" s="255"/>
+      <c r="C67" s="255"/>
+      <c r="D67" s="255"/>
+      <c r="E67" s="255"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="226"/>
-      <c r="B68" s="226"/>
-      <c r="C68" s="226"/>
-      <c r="D68" s="226"/>
-      <c r="E68" s="226"/>
+      <c r="A68" s="255"/>
+      <c r="B68" s="255"/>
+      <c r="C68" s="255"/>
+      <c r="D68" s="255"/>
+      <c r="E68" s="255"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="226"/>
-      <c r="B69" s="226"/>
-      <c r="C69" s="226"/>
-      <c r="D69" s="226"/>
-      <c r="E69" s="226"/>
+      <c r="A69" s="255"/>
+      <c r="B69" s="255"/>
+      <c r="C69" s="255"/>
+      <c r="D69" s="255"/>
+      <c r="E69" s="255"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="226"/>
-      <c r="B70" s="226"/>
-      <c r="C70" s="226"/>
-      <c r="D70" s="226"/>
-      <c r="E70" s="226"/>
+      <c r="A70" s="255"/>
+      <c r="B70" s="255"/>
+      <c r="C70" s="255"/>
+      <c r="D70" s="255"/>
+      <c r="E70" s="255"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="226"/>
-      <c r="B71" s="226"/>
-      <c r="C71" s="226"/>
-      <c r="D71" s="226"/>
-      <c r="E71" s="226"/>
+      <c r="A71" s="255"/>
+      <c r="B71" s="255"/>
+      <c r="C71" s="255"/>
+      <c r="D71" s="255"/>
+      <c r="E71" s="255"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8923,8 +8923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL1025"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:B51"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.44140625" defaultRowHeight="18"/>
@@ -9097,14 +9097,14 @@
         <v>Visite Fennex Agency</v>
       </c>
       <c r="C9" s="87"/>
-      <c r="D9" s="232" t="str">
+      <c r="D9" s="253" t="str">
         <f>HYPERLINK("https://blog.fennex.agency/","Visite Fennex Blog")</f>
         <v>Visite Fennex Blog</v>
       </c>
-      <c r="E9" s="232"/>
-      <c r="F9" s="232"/>
-      <c r="G9" s="232"/>
-      <c r="H9" s="232"/>
+      <c r="E9" s="253"/>
+      <c r="F9" s="253"/>
+      <c r="G9" s="253"/>
+      <c r="H9" s="253"/>
       <c r="I9" s="56"/>
       <c r="J9" s="56"/>
       <c r="K9" s="56"/>
@@ -9114,26 +9114,26 @@
     <row r="10" spans="1:64" customFormat="1" ht="15" thickBot="1">
       <c r="B10" s="113"/>
     </row>
-    <row r="11" spans="1:64" s="52" customFormat="1" ht="16.8" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B11" s="306" t="s">
+    <row r="11" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B11" s="291" t="s">
         <v>12</v>
       </c>
       <c r="C11"/>
       <c r="D11" s="108" t="s">
         <v>266</v>
       </c>
-      <c r="E11" s="300" t="s">
+      <c r="E11" s="285" t="s">
         <v>259</v>
       </c>
-      <c r="F11" s="301"/>
-      <c r="G11" s="302"/>
+      <c r="F11" s="286"/>
+      <c r="G11" s="287"/>
       <c r="H11"/>
       <c r="I11" s="108" t="s">
         <v>266</v>
       </c>
-      <c r="J11" s="300"/>
-      <c r="K11" s="301"/>
-      <c r="L11" s="302"/>
+      <c r="J11" s="285"/>
+      <c r="K11" s="286"/>
+      <c r="L11" s="287"/>
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
@@ -9187,24 +9187,24 @@
       <c r="BK11"/>
       <c r="BL11"/>
     </row>
-    <row r="12" spans="1:64" s="52" customFormat="1" ht="16.2" thickBot="1">
-      <c r="B12" s="307"/>
+    <row r="12" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="B12" s="292"/>
       <c r="C12"/>
       <c r="D12" s="109" t="s">
         <v>263</v>
       </c>
-      <c r="E12" s="303" t="s">
+      <c r="E12" s="288" t="s">
         <v>264</v>
       </c>
-      <c r="F12" s="309"/>
-      <c r="G12" s="305"/>
+      <c r="F12" s="294"/>
+      <c r="G12" s="290"/>
       <c r="H12"/>
       <c r="I12" s="109" t="s">
         <v>263</v>
       </c>
-      <c r="J12" s="303"/>
-      <c r="K12" s="309"/>
-      <c r="L12" s="305"/>
+      <c r="J12" s="288"/>
+      <c r="K12" s="294"/>
+      <c r="L12" s="290"/>
       <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
@@ -9258,24 +9258,24 @@
       <c r="BK12"/>
       <c r="BL12"/>
     </row>
-    <row r="13" spans="1:64" s="52" customFormat="1" ht="16.2" thickBot="1">
-      <c r="B13" s="307"/>
+    <row r="13" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="B13" s="292"/>
       <c r="C13"/>
       <c r="D13" s="109" t="s">
         <v>257</v>
       </c>
-      <c r="E13" s="303" t="s">
+      <c r="E13" s="288" t="s">
         <v>260</v>
       </c>
-      <c r="F13" s="304"/>
-      <c r="G13" s="305"/>
+      <c r="F13" s="289"/>
+      <c r="G13" s="290"/>
       <c r="H13"/>
       <c r="I13" s="109" t="s">
         <v>257</v>
       </c>
-      <c r="J13" s="303"/>
-      <c r="K13" s="304"/>
-      <c r="L13" s="305"/>
+      <c r="J13" s="288"/>
+      <c r="K13" s="289"/>
+      <c r="L13" s="290"/>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
@@ -9329,24 +9329,24 @@
       <c r="BK13"/>
       <c r="BL13"/>
     </row>
-    <row r="14" spans="1:64" s="52" customFormat="1" ht="16.2" customHeight="1">
-      <c r="B14" s="307"/>
+    <row r="14" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1">
+      <c r="B14" s="292"/>
       <c r="C14"/>
-      <c r="D14" s="310" t="s">
+      <c r="D14" s="295" t="s">
         <v>258</v>
       </c>
-      <c r="E14" s="312" t="s">
+      <c r="E14" s="297" t="s">
         <v>265</v>
       </c>
-      <c r="F14" s="309"/>
-      <c r="G14" s="313"/>
+      <c r="F14" s="294"/>
+      <c r="G14" s="298"/>
       <c r="H14"/>
-      <c r="I14" s="310" t="s">
+      <c r="I14" s="295" t="s">
         <v>258</v>
       </c>
-      <c r="J14" s="312"/>
-      <c r="K14" s="309"/>
-      <c r="L14" s="313"/>
+      <c r="J14" s="297"/>
+      <c r="K14" s="294"/>
+      <c r="L14" s="298"/>
       <c r="M14"/>
       <c r="N14"/>
       <c r="O14"/>
@@ -9400,18 +9400,18 @@
       <c r="BK14"/>
       <c r="BL14"/>
     </row>
-    <row r="15" spans="1:64" s="52" customFormat="1" ht="16.2" thickBot="1">
-      <c r="B15" s="308"/>
+    <row r="15" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="B15" s="293"/>
       <c r="C15"/>
-      <c r="D15" s="311"/>
-      <c r="E15" s="314"/>
-      <c r="F15" s="315"/>
-      <c r="G15" s="316"/>
+      <c r="D15" s="296"/>
+      <c r="E15" s="299"/>
+      <c r="F15" s="300"/>
+      <c r="G15" s="301"/>
       <c r="H15"/>
-      <c r="I15" s="311"/>
-      <c r="J15" s="314"/>
-      <c r="K15" s="315"/>
-      <c r="L15" s="316"/>
+      <c r="I15" s="296"/>
+      <c r="J15" s="299"/>
+      <c r="K15" s="300"/>
+      <c r="L15" s="301"/>
       <c r="M15"/>
       <c r="N15"/>
       <c r="O15"/>
@@ -9466,23 +9466,23 @@
       <c r="BL15"/>
     </row>
     <row r="16" spans="1:64" ht="15" customHeight="1" thickTop="1">
-      <c r="B16" s="269" t="s">
+      <c r="B16" s="313" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="294">
+      <c r="D16" s="302">
         <f>SUM(D47:D48,D39:D45,D30:D37,D24:D28,D19:D22)</f>
         <v>180</v>
       </c>
-      <c r="E16" s="295"/>
-      <c r="F16" s="295"/>
-      <c r="G16" s="296"/>
-      <c r="I16" s="294" t="e">
+      <c r="E16" s="303"/>
+      <c r="F16" s="303"/>
+      <c r="G16" s="304"/>
+      <c r="I16" s="302" t="e">
         <f>SUM(I47:I48,I39:I45,I30:I37,I24:I28,I19:I22)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J16" s="295"/>
-      <c r="K16" s="295"/>
-      <c r="L16" s="296"/>
+      <c r="J16" s="303"/>
+      <c r="K16" s="303"/>
+      <c r="L16" s="304"/>
       <c r="R16"/>
       <c r="S16"/>
       <c r="T16"/>
@@ -9532,15 +9532,15 @@
       <c r="BL16"/>
     </row>
     <row r="17" spans="2:64" ht="25.2" customHeight="1" thickBot="1">
-      <c r="B17" s="270"/>
-      <c r="D17" s="297"/>
-      <c r="E17" s="298"/>
-      <c r="F17" s="298"/>
-      <c r="G17" s="299"/>
-      <c r="I17" s="297"/>
-      <c r="J17" s="298"/>
-      <c r="K17" s="298"/>
-      <c r="L17" s="299"/>
+      <c r="B17" s="314"/>
+      <c r="D17" s="305"/>
+      <c r="E17" s="306"/>
+      <c r="F17" s="306"/>
+      <c r="G17" s="307"/>
+      <c r="I17" s="305"/>
+      <c r="J17" s="306"/>
+      <c r="K17" s="306"/>
+      <c r="L17" s="307"/>
       <c r="R17"/>
       <c r="S17"/>
       <c r="T17"/>
@@ -9593,14 +9593,14 @@
       <c r="B18" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="291"/>
-      <c r="E18" s="292"/>
-      <c r="F18" s="292"/>
-      <c r="G18" s="293"/>
-      <c r="I18" s="291"/>
-      <c r="J18" s="292"/>
-      <c r="K18" s="292"/>
-      <c r="L18" s="293"/>
+      <c r="D18" s="308"/>
+      <c r="E18" s="309"/>
+      <c r="F18" s="309"/>
+      <c r="G18" s="310"/>
+      <c r="I18" s="308"/>
+      <c r="J18" s="309"/>
+      <c r="K18" s="309"/>
+      <c r="L18" s="310"/>
       <c r="R18"/>
       <c r="S18"/>
       <c r="T18"/>
@@ -9650,11 +9650,11 @@
       <c r="BL18"/>
     </row>
     <row r="19" spans="2:64" ht="48" thickTop="1" thickBot="1">
-      <c r="B19" s="287" t="str">
+      <c r="B19" s="319" t="str">
         <f>"Sales Price is Between " &amp; 'TOOL CONFIGURATION'!$B$24 &amp; " &amp; " &amp; 'TOOL CONFIGURATION'!$B$25 &amp; 'TOOL CONFIGURATION'!A14 &amp; " Avg Price Top 10 Sallers"</f>
         <v>Sales Price is Between 20 &amp; 50$ Avg Price Top 10 Sallers</v>
       </c>
-      <c r="D19" s="289">
+      <c r="D19" s="311">
         <f>IF(E20&gt;='TOOL CONFIGURATION'!$B$24,10,0)</f>
         <v>10</v>
       </c>
@@ -9667,7 +9667,7 @@
       <c r="G19" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="289">
+      <c r="I19" s="311">
         <f>IF(J20&gt;='TOOL CONFIGURATION'!$B$24,10,0)</f>
         <v>10</v>
       </c>
@@ -9729,14 +9729,14 @@
       <c r="BL19"/>
     </row>
     <row r="20" spans="2:64" ht="40.049999999999997" customHeight="1" thickBot="1">
-      <c r="B20" s="288"/>
-      <c r="D20" s="290"/>
+      <c r="B20" s="320"/>
+      <c r="D20" s="312"/>
       <c r="E20" s="139">
         <v>20</v>
       </c>
       <c r="F20" s="139"/>
       <c r="G20" s="140"/>
-      <c r="I20" s="290"/>
+      <c r="I20" s="312"/>
       <c r="J20" s="139">
         <v>20</v>
       </c>
@@ -9802,10 +9802,10 @@
       <c r="E21" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="265" t="s">
+      <c r="F21" s="315" t="s">
         <v>222</v>
       </c>
-      <c r="G21" s="266"/>
+      <c r="G21" s="316"/>
       <c r="I21" s="141">
         <f>IF(K21="Standard",10,0)</f>
         <v>0</v>
@@ -9813,8 +9813,8 @@
       <c r="J21" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="265"/>
-      <c r="L21" s="266"/>
+      <c r="K21" s="315"/>
+      <c r="L21" s="316"/>
       <c r="R21"/>
       <c r="S21"/>
       <c r="T21"/>
@@ -9875,10 +9875,10 @@
       <c r="E22" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="285" t="s">
+      <c r="F22" s="317" t="s">
         <v>262</v>
       </c>
-      <c r="G22" s="286"/>
+      <c r="G22" s="318"/>
       <c r="I22" s="143">
         <f>IF(K22&gt;'TOOL CONFIGURATION'!$B$33,0,10)</f>
         <v>10</v>
@@ -9886,8 +9886,8 @@
       <c r="J22" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="285"/>
-      <c r="L22" s="286"/>
+      <c r="K22" s="317"/>
+      <c r="L22" s="318"/>
       <c r="R22"/>
       <c r="S22"/>
       <c r="T22"/>
@@ -9940,14 +9940,14 @@
       <c r="B23" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="252"/>
-      <c r="E23" s="253"/>
-      <c r="F23" s="253"/>
-      <c r="G23" s="254"/>
-      <c r="I23" s="252"/>
-      <c r="J23" s="253"/>
-      <c r="K23" s="253"/>
-      <c r="L23" s="254"/>
+      <c r="D23" s="325"/>
+      <c r="E23" s="326"/>
+      <c r="F23" s="326"/>
+      <c r="G23" s="327"/>
+      <c r="I23" s="325"/>
+      <c r="J23" s="326"/>
+      <c r="K23" s="326"/>
+      <c r="L23" s="327"/>
       <c r="R23"/>
       <c r="S23"/>
       <c r="T23"/>
@@ -10009,10 +10009,10 @@
       <c r="E24" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="255">
+      <c r="F24" s="323">
         <v>493</v>
       </c>
-      <c r="G24" s="256"/>
+      <c r="G24" s="324"/>
       <c r="H24"/>
       <c r="I24" s="145">
         <f>IF(AND(K24&gt;'TOOL CONFIGURATION'!$B$37,K24&lt;'TOOL CONFIGURATION'!$B$38),10,0)</f>
@@ -10021,10 +10021,10 @@
       <c r="J24" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="255">
+      <c r="K24" s="323">
         <v>493</v>
       </c>
-      <c r="L24" s="256"/>
+      <c r="L24" s="324"/>
       <c r="M24"/>
       <c r="N24"/>
       <c r="O24"/>
@@ -10083,7 +10083,7 @@
         <f>"At least 3 Products have a main category rank of less than "&amp;'TOOL CONFIGURATION'!$B$37&amp;" for the main keyword"</f>
         <v>At least 3 Products have a main category rank of less than 10000 for the main keyword</v>
       </c>
-      <c r="D25" s="257">
+      <c r="D25" s="321">
         <f>IF(E26&gt;2,10,0)</f>
         <v>10</v>
       </c>
@@ -10096,7 +10096,7 @@
       <c r="G25" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="257">
+      <c r="I25" s="321">
         <f>IF(J26&gt;2,10,0)</f>
         <v>0</v>
       </c>
@@ -10162,13 +10162,13 @@
         <f>"(Sweet spot 2-3 product with BSR "&amp;'TOOL CONFIGURATION'!$B$39&amp;")"</f>
         <v>(Sweet spot 2-3 product with BSR 5000)</v>
       </c>
-      <c r="D26" s="258"/>
+      <c r="D26" s="322"/>
       <c r="E26" s="150">
         <v>3</v>
       </c>
       <c r="F26" s="151"/>
       <c r="G26" s="152"/>
-      <c r="I26" s="258"/>
+      <c r="I26" s="322"/>
       <c r="J26" s="150"/>
       <c r="K26" s="151"/>
       <c r="L26" s="152"/>
@@ -10232,10 +10232,10 @@
       <c r="E27" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="259">
+      <c r="F27" s="330">
         <v>150000</v>
       </c>
-      <c r="G27" s="260"/>
+      <c r="G27" s="331"/>
       <c r="I27" s="153">
         <f>IF(K27&gt;'TOOL CONFIGURATION'!$B$42,10,0)</f>
         <v>0</v>
@@ -10243,8 +10243,8 @@
       <c r="J27" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="K27" s="259"/>
-      <c r="L27" s="260"/>
+      <c r="K27" s="330"/>
+      <c r="L27" s="331"/>
       <c r="R27"/>
       <c r="S27"/>
       <c r="T27"/>
@@ -10305,10 +10305,10 @@
       <c r="E28" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="261">
+      <c r="F28" s="332">
         <v>300000</v>
       </c>
-      <c r="G28" s="262"/>
+      <c r="G28" s="333"/>
       <c r="I28" s="155">
         <f>IF(K28&gt;'TOOL CONFIGURATION'!$B$43,10,0)</f>
         <v>0</v>
@@ -10316,8 +10316,8 @@
       <c r="J28" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="K28" s="261"/>
-      <c r="L28" s="262"/>
+      <c r="K28" s="332"/>
+      <c r="L28" s="333"/>
       <c r="R28"/>
       <c r="S28"/>
       <c r="T28"/>
@@ -10370,14 +10370,14 @@
       <c r="B29" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="252"/>
-      <c r="E29" s="253"/>
-      <c r="F29" s="253"/>
-      <c r="G29" s="254"/>
-      <c r="I29" s="252"/>
-      <c r="J29" s="253"/>
-      <c r="K29" s="253"/>
-      <c r="L29" s="254"/>
+      <c r="D29" s="325"/>
+      <c r="E29" s="326"/>
+      <c r="F29" s="326"/>
+      <c r="G29" s="327"/>
+      <c r="I29" s="325"/>
+      <c r="J29" s="326"/>
+      <c r="K29" s="326"/>
+      <c r="L29" s="327"/>
       <c r="R29"/>
       <c r="S29"/>
       <c r="T29"/>
@@ -10431,7 +10431,7 @@
         <f>"Total Top 10 Esti. Sales &gt; "&amp;'TOOL CONFIGURATION'!$B$47</f>
         <v>Total Top 10 Esti. Sales &gt; 3000</v>
       </c>
-      <c r="D30" s="263">
+      <c r="D30" s="328">
         <f>IF(E31&gt;'TOOL CONFIGURATION'!$B$47,10,0)</f>
         <v>10</v>
       </c>
@@ -10444,7 +10444,7 @@
       <c r="G30" s="159" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="263">
+      <c r="I30" s="328">
         <f>IF(J31&gt;'TOOL CONFIGURATION'!$B$47,10,0)</f>
         <v>0</v>
       </c>
@@ -10510,13 +10510,13 @@
         <f>"Avrege estimated sales for Top 10 sallers should be abouve "&amp;'TOOL CONFIGURATION'!$B$47/10&amp;" sales per month"</f>
         <v>Avrege estimated sales for Top 10 sallers should be abouve 300 sales per month</v>
       </c>
-      <c r="D31" s="264"/>
+      <c r="D31" s="329"/>
       <c r="E31" s="160">
         <v>3001</v>
       </c>
       <c r="F31" s="161"/>
       <c r="G31" s="162"/>
-      <c r="I31" s="264"/>
+      <c r="I31" s="329"/>
       <c r="J31" s="160"/>
       <c r="K31" s="161"/>
       <c r="L31" s="162"/>
@@ -10580,10 +10580,10 @@
       <c r="E32" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="265">
+      <c r="F32" s="315">
         <v>5001</v>
       </c>
-      <c r="G32" s="266"/>
+      <c r="G32" s="316"/>
       <c r="I32" s="163">
         <f>IF(K32&gt;'TOOL CONFIGURATION'!$B$48,10,0)</f>
         <v>0</v>
@@ -10591,8 +10591,8 @@
       <c r="J32" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="K32" s="265"/>
-      <c r="L32" s="266"/>
+      <c r="K32" s="315"/>
+      <c r="L32" s="316"/>
       <c r="R32"/>
       <c r="S32"/>
       <c r="T32"/>
@@ -10646,7 +10646,7 @@
         <f>"Total Estimated Revenue On The Page 1 Should Be Under "&amp;'TOOL CONFIGURATION'!$B$51&amp;'TOOL CONFIGURATION'!A14</f>
         <v>Total Estimated Revenue On The Page 1 Should Be Under 250000$</v>
       </c>
-      <c r="D33" s="267">
+      <c r="D33" s="336">
         <f>IF(AND(E34&gt;'TOOL CONFIGURATION'!$B$52,E34&lt;'TOOL CONFIGURATION'!$B$51),10,0)</f>
         <v>10</v>
       </c>
@@ -10659,7 +10659,7 @@
       <c r="G33" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="I33" s="267">
+      <c r="I33" s="336">
         <f>IF(AND(J34&gt;'TOOL CONFIGURATION'!$B$52,J34&lt;'TOOL CONFIGURATION'!$B$51),10,0)</f>
         <v>0</v>
       </c>
@@ -10725,13 +10725,13 @@
         <f>"Total Estimated revenue on page 1 should be above "&amp;'TOOL CONFIGURATION'!$B$52&amp;'TOOL CONFIGURATION'!A14</f>
         <v>Total Estimated revenue on page 1 should be above 25000$</v>
       </c>
-      <c r="D34" s="268"/>
+      <c r="D34" s="337"/>
       <c r="E34" s="168">
         <v>50000</v>
       </c>
       <c r="F34" s="161"/>
       <c r="G34" s="169"/>
-      <c r="I34" s="268"/>
+      <c r="I34" s="337"/>
       <c r="J34" s="168"/>
       <c r="K34" s="161"/>
       <c r="L34" s="169"/>
@@ -10783,7 +10783,7 @@
       <c r="BK34"/>
       <c r="BL34"/>
     </row>
-    <row r="35" spans="2:64" ht="40.049999999999997" customHeight="1" thickBot="1">
+    <row r="35" spans="2:64" ht="60" customHeight="1" thickBot="1">
       <c r="B35" s="127" t="s">
         <v>33</v>
       </c>
@@ -10861,7 +10861,7 @@
       <c r="BK35"/>
       <c r="BL35"/>
     </row>
-    <row r="36" spans="2:64" ht="40.049999999999997" customHeight="1" thickBot="1">
+    <row r="36" spans="2:64" ht="60" customHeight="1" thickBot="1">
       <c r="B36" s="128" t="s">
         <v>35</v>
       </c>
@@ -10939,7 +10939,7 @@
       <c r="BK36"/>
       <c r="BL36"/>
     </row>
-    <row r="37" spans="2:64" ht="40.049999999999997" customHeight="1" thickBot="1">
+    <row r="37" spans="2:64" ht="60" customHeight="1" thickBot="1">
       <c r="B37" s="129" t="s">
         <v>37</v>
       </c>
@@ -11021,14 +11021,14 @@
       <c r="B38" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="252"/>
-      <c r="E38" s="253"/>
-      <c r="F38" s="253"/>
-      <c r="G38" s="254"/>
-      <c r="I38" s="252"/>
-      <c r="J38" s="253"/>
-      <c r="K38" s="253"/>
-      <c r="L38" s="254"/>
+      <c r="D38" s="325"/>
+      <c r="E38" s="326"/>
+      <c r="F38" s="326"/>
+      <c r="G38" s="327"/>
+      <c r="I38" s="325"/>
+      <c r="J38" s="326"/>
+      <c r="K38" s="326"/>
+      <c r="L38" s="327"/>
       <c r="R38"/>
       <c r="S38"/>
       <c r="T38"/>
@@ -11089,10 +11089,10 @@
       <c r="E39" s="179" t="s">
         <v>202</v>
       </c>
-      <c r="F39" s="280">
+      <c r="F39" s="334">
         <v>3</v>
       </c>
-      <c r="G39" s="281"/>
+      <c r="G39" s="335"/>
       <c r="I39" s="178">
         <f>IF(K39&gt;='TOOL CONFIGURATION'!$E$57,10,0)</f>
         <v>10</v>
@@ -11100,10 +11100,10 @@
       <c r="J39" s="179" t="s">
         <v>202</v>
       </c>
-      <c r="K39" s="280">
+      <c r="K39" s="334">
         <v>3</v>
       </c>
-      <c r="L39" s="281"/>
+      <c r="L39" s="335"/>
       <c r="R39"/>
       <c r="S39"/>
       <c r="T39"/>
@@ -11153,11 +11153,11 @@
       <c r="BL39"/>
     </row>
     <row r="40" spans="2:64" ht="40.049999999999997" customHeight="1" thickBot="1">
-      <c r="B40" s="282" t="str">
+      <c r="B40" s="338" t="str">
         <f>"No More than "&amp;'TOOL CONFIGURATION'!$E$58&amp;" Powersellers with more than "&amp;'TOOL CONFIGURATION'!$B$58&amp;" reviews"</f>
         <v>No More than 3 Powersellers with more than 250 reviews</v>
       </c>
-      <c r="D40" s="283">
+      <c r="D40" s="339">
         <f>IF(E41&lt;='TOOL CONFIGURATION'!$E$58,10,0)</f>
         <v>10</v>
       </c>
@@ -11170,7 +11170,7 @@
       <c r="G40" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="I40" s="283">
+      <c r="I40" s="339">
         <f>IF(J41&lt;='TOOL CONFIGURATION'!$E$58,10,0)</f>
         <v>10</v>
       </c>
@@ -11232,14 +11232,14 @@
       <c r="BL40"/>
     </row>
     <row r="41" spans="2:64" ht="40.049999999999997" customHeight="1" thickBot="1">
-      <c r="B41" s="282"/>
-      <c r="D41" s="284"/>
+      <c r="B41" s="338"/>
+      <c r="D41" s="340"/>
       <c r="E41" s="150">
         <v>3</v>
       </c>
       <c r="F41" s="151"/>
       <c r="G41" s="183"/>
-      <c r="I41" s="284"/>
+      <c r="I41" s="340"/>
       <c r="J41" s="150"/>
       <c r="K41" s="151"/>
       <c r="L41" s="183"/>
@@ -11292,11 +11292,11 @@
       <c r="BL41"/>
     </row>
     <row r="42" spans="2:64" ht="40.049999999999997" customHeight="1" thickBot="1">
-      <c r="B42" s="282" t="str">
+      <c r="B42" s="338" t="str">
         <f>"Average Product Reviews (of 4 to 5 stars) for Top 5 sellers is less than "&amp;'TOOL CONFIGURATION'!$B$59&amp;" reviews"</f>
         <v>Average Product Reviews (of 4 to 5 stars) for Top 5 sellers is less than 100 reviews</v>
       </c>
-      <c r="D42" s="283">
+      <c r="D42" s="339">
         <f>IF(E43&lt;'TOOL CONFIGURATION'!$B$59,10,0)</f>
         <v>10</v>
       </c>
@@ -11309,7 +11309,7 @@
       <c r="G42" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="I42" s="283">
+      <c r="I42" s="339">
         <f>IF(J43&lt;'TOOL CONFIGURATION'!$B$59,10,0)</f>
         <v>10</v>
       </c>
@@ -11371,14 +11371,14 @@
       <c r="BL42"/>
     </row>
     <row r="43" spans="2:64" ht="40.049999999999997" customHeight="1" thickBot="1">
-      <c r="B43" s="282"/>
-      <c r="D43" s="284"/>
+      <c r="B43" s="338"/>
+      <c r="D43" s="340"/>
       <c r="E43" s="160">
         <v>99</v>
       </c>
       <c r="F43" s="161"/>
       <c r="G43" s="183"/>
-      <c r="I43" s="284"/>
+      <c r="I43" s="340"/>
       <c r="J43" s="160"/>
       <c r="K43" s="161"/>
       <c r="L43" s="183"/>
@@ -11442,10 +11442,10 @@
       <c r="E44" s="180" t="s">
         <v>202</v>
       </c>
-      <c r="F44" s="259">
+      <c r="F44" s="330">
         <v>5</v>
       </c>
-      <c r="G44" s="260"/>
+      <c r="G44" s="331"/>
       <c r="I44" s="186">
         <f>IF(K44&gt;='TOOL CONFIGURATION'!$E$60,10,0)</f>
         <v>0</v>
@@ -11453,8 +11453,8 @@
       <c r="J44" s="180" t="s">
         <v>202</v>
       </c>
-      <c r="K44" s="259"/>
-      <c r="L44" s="260"/>
+      <c r="K44" s="330"/>
+      <c r="L44" s="331"/>
       <c r="R44"/>
       <c r="S44"/>
       <c r="T44"/>
@@ -11515,10 +11515,10 @@
       <c r="E45" s="188" t="s">
         <v>205</v>
       </c>
-      <c r="F45" s="261">
+      <c r="F45" s="332">
         <v>199</v>
       </c>
-      <c r="G45" s="262"/>
+      <c r="G45" s="333"/>
       <c r="I45" s="187">
         <f>IF(K45&lt;'TOOL CONFIGURATION'!$B$61,10,0)</f>
         <v>10</v>
@@ -11526,8 +11526,8 @@
       <c r="J45" s="188" t="s">
         <v>205</v>
       </c>
-      <c r="K45" s="261"/>
-      <c r="L45" s="262"/>
+      <c r="K45" s="332"/>
+      <c r="L45" s="333"/>
       <c r="R45"/>
       <c r="S45"/>
       <c r="T45"/>
@@ -11580,14 +11580,14 @@
       <c r="B46" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="252"/>
-      <c r="E46" s="253"/>
-      <c r="F46" s="253"/>
-      <c r="G46" s="254"/>
-      <c r="I46" s="252"/>
-      <c r="J46" s="253"/>
-      <c r="K46" s="253"/>
-      <c r="L46" s="254"/>
+      <c r="D46" s="325"/>
+      <c r="E46" s="326"/>
+      <c r="F46" s="326"/>
+      <c r="G46" s="327"/>
+      <c r="I46" s="325"/>
+      <c r="J46" s="326"/>
+      <c r="K46" s="326"/>
+      <c r="L46" s="327"/>
       <c r="R46"/>
       <c r="S46"/>
       <c r="T46"/>
@@ -11636,7 +11636,7 @@
       <c r="BK46"/>
       <c r="BL46"/>
     </row>
-    <row r="47" spans="2:64" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1">
+    <row r="47" spans="2:64" ht="49.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="B47" s="133" t="s">
         <v>267</v>
       </c>
@@ -11647,10 +11647,10 @@
       <c r="E47" s="190" t="s">
         <v>41</v>
       </c>
-      <c r="F47" s="280" t="s">
+      <c r="F47" s="334" t="s">
         <v>42</v>
       </c>
-      <c r="G47" s="281"/>
+      <c r="G47" s="335"/>
       <c r="I47" s="189">
         <f>IF(K47="Y",10,0)</f>
         <v>0</v>
@@ -11658,8 +11658,8 @@
       <c r="J47" s="190" t="s">
         <v>41</v>
       </c>
-      <c r="K47" s="280"/>
-      <c r="L47" s="281"/>
+      <c r="K47" s="334"/>
+      <c r="L47" s="335"/>
       <c r="R47"/>
       <c r="S47"/>
       <c r="T47"/>
@@ -11708,7 +11708,7 @@
       <c r="BK47"/>
       <c r="BL47"/>
     </row>
-    <row r="48" spans="2:64" ht="40.049999999999997" customHeight="1" thickBot="1">
+    <row r="48" spans="2:64" ht="60" customHeight="1" thickBot="1">
       <c r="B48" s="134" t="s">
         <v>211</v>
       </c>
@@ -11719,10 +11719,10 @@
       <c r="E48" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="F48" s="261" t="s">
+      <c r="F48" s="332" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="262"/>
+      <c r="G48" s="333"/>
       <c r="I48" s="191">
         <f>IF(K48="Y",10,0)</f>
         <v>0</v>
@@ -11730,8 +11730,8 @@
       <c r="J48" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="K48" s="261"/>
-      <c r="L48" s="262"/>
+      <c r="K48" s="332"/>
+      <c r="L48" s="333"/>
       <c r="R48"/>
       <c r="S48"/>
       <c r="T48"/>
@@ -11782,14 +11782,14 @@
     </row>
     <row r="49" spans="1:64" ht="24.6" thickTop="1" thickBot="1">
       <c r="B49" s="114"/>
-      <c r="D49" s="277"/>
-      <c r="E49" s="278"/>
-      <c r="F49" s="278"/>
-      <c r="G49" s="279"/>
-      <c r="I49" s="277"/>
-      <c r="J49" s="278"/>
-      <c r="K49" s="278"/>
-      <c r="L49" s="279"/>
+      <c r="D49" s="347"/>
+      <c r="E49" s="348"/>
+      <c r="F49" s="348"/>
+      <c r="G49" s="349"/>
+      <c r="I49" s="347"/>
+      <c r="J49" s="348"/>
+      <c r="K49" s="348"/>
+      <c r="L49" s="349"/>
       <c r="R49"/>
       <c r="S49"/>
       <c r="T49"/>
@@ -11839,23 +11839,23 @@
       <c r="BL49"/>
     </row>
     <row r="50" spans="1:64" ht="15" customHeight="1" thickTop="1">
-      <c r="B50" s="269" t="s">
+      <c r="B50" s="313" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="271">
+      <c r="D50" s="341">
         <f>SUM(D47:D48,D39:D45,D30:D37,D24:D28,D19:D22)</f>
         <v>180</v>
       </c>
-      <c r="E50" s="272"/>
-      <c r="F50" s="272"/>
-      <c r="G50" s="273"/>
-      <c r="I50" s="271" t="e">
+      <c r="E50" s="342"/>
+      <c r="F50" s="342"/>
+      <c r="G50" s="343"/>
+      <c r="I50" s="341" t="e">
         <f>SUM(I47:I48,I39:I45,I30:I37,I24:I28,I19:I22)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J50" s="272"/>
-      <c r="K50" s="272"/>
-      <c r="L50" s="273"/>
+      <c r="J50" s="342"/>
+      <c r="K50" s="342"/>
+      <c r="L50" s="343"/>
       <c r="R50"/>
       <c r="S50"/>
       <c r="T50"/>
@@ -11905,15 +11905,15 @@
       <c r="BL50"/>
     </row>
     <row r="51" spans="1:64" ht="39.6" customHeight="1" thickBot="1">
-      <c r="B51" s="270"/>
-      <c r="D51" s="274"/>
-      <c r="E51" s="275"/>
-      <c r="F51" s="275"/>
-      <c r="G51" s="276"/>
-      <c r="I51" s="274"/>
-      <c r="J51" s="275"/>
-      <c r="K51" s="275"/>
-      <c r="L51" s="276"/>
+      <c r="B51" s="314"/>
+      <c r="D51" s="344"/>
+      <c r="E51" s="345"/>
+      <c r="F51" s="345"/>
+      <c r="G51" s="346"/>
+      <c r="I51" s="344"/>
+      <c r="J51" s="345"/>
+      <c r="K51" s="345"/>
+      <c r="L51" s="346"/>
       <c r="R51"/>
       <c r="S51"/>
       <c r="T51"/>
@@ -12074,42 +12074,42 @@
       <c r="BL53"/>
     </row>
     <row r="54" spans="1:64" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A54" s="226" t="s">
+      <c r="A54" s="255" t="s">
         <v>232</v>
       </c>
-      <c r="B54" s="226"/>
-      <c r="C54" s="226"/>
-      <c r="D54" s="226"/>
-      <c r="E54" s="226"/>
-      <c r="F54" s="226"/>
-      <c r="G54" s="226"/>
+      <c r="B54" s="255"/>
+      <c r="C54" s="255"/>
+      <c r="D54" s="255"/>
+      <c r="E54" s="255"/>
+      <c r="F54" s="255"/>
+      <c r="G54" s="255"/>
     </row>
     <row r="55" spans="1:64" customFormat="1" ht="14.4">
-      <c r="A55" s="226"/>
-      <c r="B55" s="226"/>
-      <c r="C55" s="226"/>
-      <c r="D55" s="226"/>
-      <c r="E55" s="226"/>
-      <c r="F55" s="226"/>
-      <c r="G55" s="226"/>
+      <c r="A55" s="255"/>
+      <c r="B55" s="255"/>
+      <c r="C55" s="255"/>
+      <c r="D55" s="255"/>
+      <c r="E55" s="255"/>
+      <c r="F55" s="255"/>
+      <c r="G55" s="255"/>
     </row>
     <row r="56" spans="1:64" customFormat="1" ht="14.4">
-      <c r="A56" s="226"/>
-      <c r="B56" s="226"/>
-      <c r="C56" s="226"/>
-      <c r="D56" s="226"/>
-      <c r="E56" s="226"/>
-      <c r="F56" s="226"/>
-      <c r="G56" s="226"/>
+      <c r="A56" s="255"/>
+      <c r="B56" s="255"/>
+      <c r="C56" s="255"/>
+      <c r="D56" s="255"/>
+      <c r="E56" s="255"/>
+      <c r="F56" s="255"/>
+      <c r="G56" s="255"/>
     </row>
     <row r="57" spans="1:64" ht="14.4">
-      <c r="A57" s="226"/>
-      <c r="B57" s="226"/>
-      <c r="C57" s="226"/>
-      <c r="D57" s="226"/>
-      <c r="E57" s="226"/>
-      <c r="F57" s="226"/>
-      <c r="G57" s="226"/>
+      <c r="A57" s="255"/>
+      <c r="B57" s="255"/>
+      <c r="C57" s="255"/>
+      <c r="D57" s="255"/>
+      <c r="E57" s="255"/>
+      <c r="F57" s="255"/>
+      <c r="G57" s="255"/>
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57"/>
@@ -12163,13 +12163,13 @@
       <c r="BL57"/>
     </row>
     <row r="58" spans="1:64">
-      <c r="A58" s="226"/>
-      <c r="B58" s="226"/>
-      <c r="C58" s="226"/>
-      <c r="D58" s="226"/>
-      <c r="E58" s="226"/>
-      <c r="F58" s="226"/>
-      <c r="G58" s="226"/>
+      <c r="A58" s="255"/>
+      <c r="B58" s="255"/>
+      <c r="C58" s="255"/>
+      <c r="D58" s="255"/>
+      <c r="E58" s="255"/>
+      <c r="F58" s="255"/>
+      <c r="G58" s="255"/>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
       <c r="R58"/>
@@ -29542,58 +29542,6 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:G15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:L15"/>
-    <mergeCell ref="I16:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:G17"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="I46:L46"/>
     <mergeCell ref="A54:G58"/>
     <mergeCell ref="I23:L23"/>
     <mergeCell ref="K24:L24"/>
@@ -29610,6 +29558,58 @@
     <mergeCell ref="I49:L49"/>
     <mergeCell ref="I50:L51"/>
     <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="I16:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:G17"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:L15"/>
   </mergeCells>
   <conditionalFormatting sqref="B30">
     <cfRule type="colorScale" priority="77">
@@ -29846,11 +29846,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1007"/>
+  <dimension ref="A1:U1008"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K19" sqref="K19"/>
+      <selection pane="topRight" activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.44140625" defaultRowHeight="14.4"/>
@@ -29876,192 +29876,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" customFormat="1" ht="21">
-      <c r="A1" s="228"/>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="228"/>
-      <c r="L1" s="228"/>
-      <c r="M1" s="228"/>
-      <c r="N1" s="228"/>
+      <c r="A1" s="248"/>
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="248"/>
+      <c r="E1" s="248"/>
+      <c r="F1" s="248"/>
+      <c r="G1" s="248"/>
+      <c r="H1" s="248"/>
+      <c r="I1" s="248"/>
+      <c r="J1" s="248"/>
+      <c r="K1" s="248"/>
+      <c r="L1" s="248"/>
+      <c r="M1" s="248"/>
+      <c r="N1" s="248"/>
     </row>
     <row r="2" spans="1:21" customFormat="1" ht="21" customHeight="1">
-      <c r="A2" s="229"/>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="229"/>
-      <c r="L2" s="229"/>
-      <c r="M2" s="229"/>
-      <c r="N2" s="229"/>
+      <c r="A2" s="249"/>
+      <c r="B2" s="249"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="249"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="249"/>
+      <c r="J2" s="249"/>
+      <c r="K2" s="249"/>
+      <c r="L2" s="249"/>
+      <c r="M2" s="249"/>
+      <c r="N2" s="249"/>
     </row>
     <row r="3" spans="1:21" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A3" s="229"/>
-      <c r="B3" s="229"/>
-      <c r="C3" s="229"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="229"/>
-      <c r="F3" s="229"/>
-      <c r="G3" s="229"/>
-      <c r="H3" s="229"/>
-      <c r="I3" s="229"/>
-      <c r="J3" s="229"/>
-      <c r="K3" s="229"/>
-      <c r="L3" s="229"/>
-      <c r="M3" s="229"/>
-      <c r="N3" s="229"/>
+      <c r="A3" s="249"/>
+      <c r="B3" s="249"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="249"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
+      <c r="N3" s="249"/>
     </row>
     <row r="4" spans="1:21" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A4" s="229"/>
-      <c r="B4" s="229"/>
-      <c r="C4" s="229"/>
-      <c r="D4" s="229"/>
-      <c r="E4" s="229"/>
-      <c r="F4" s="229"/>
-      <c r="G4" s="229"/>
-      <c r="H4" s="229"/>
-      <c r="I4" s="229"/>
-      <c r="J4" s="229"/>
-      <c r="K4" s="229"/>
-      <c r="L4" s="229"/>
-      <c r="M4" s="229"/>
-      <c r="N4" s="229"/>
+      <c r="A4" s="249"/>
+      <c r="B4" s="249"/>
+      <c r="C4" s="249"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="249"/>
+      <c r="F4" s="249"/>
+      <c r="G4" s="249"/>
+      <c r="H4" s="249"/>
+      <c r="I4" s="249"/>
+      <c r="J4" s="249"/>
+      <c r="K4" s="249"/>
+      <c r="L4" s="249"/>
+      <c r="M4" s="249"/>
+      <c r="N4" s="249"/>
     </row>
     <row r="5" spans="1:21" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A5" s="229"/>
-      <c r="B5" s="229"/>
-      <c r="C5" s="229"/>
-      <c r="D5" s="229"/>
-      <c r="E5" s="229"/>
-      <c r="F5" s="229"/>
-      <c r="G5" s="229"/>
-      <c r="H5" s="229"/>
-      <c r="I5" s="229"/>
-      <c r="J5" s="229"/>
-      <c r="K5" s="229"/>
-      <c r="L5" s="229"/>
-      <c r="M5" s="229"/>
-      <c r="N5" s="229"/>
+      <c r="A5" s="249"/>
+      <c r="B5" s="249"/>
+      <c r="C5" s="249"/>
+      <c r="D5" s="249"/>
+      <c r="E5" s="249"/>
+      <c r="F5" s="249"/>
+      <c r="G5" s="249"/>
+      <c r="H5" s="249"/>
+      <c r="I5" s="249"/>
+      <c r="J5" s="249"/>
+      <c r="K5" s="249"/>
+      <c r="L5" s="249"/>
+      <c r="M5" s="249"/>
+      <c r="N5" s="249"/>
     </row>
     <row r="6" spans="1:21" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A6" s="229"/>
-      <c r="B6" s="229"/>
-      <c r="C6" s="229"/>
-      <c r="D6" s="229"/>
-      <c r="E6" s="229"/>
-      <c r="F6" s="229"/>
-      <c r="G6" s="229"/>
-      <c r="H6" s="229"/>
-      <c r="I6" s="229"/>
-      <c r="J6" s="229"/>
-      <c r="K6" s="229"/>
-      <c r="L6" s="229"/>
-      <c r="M6" s="229"/>
-      <c r="N6" s="229"/>
+      <c r="A6" s="249"/>
+      <c r="B6" s="249"/>
+      <c r="C6" s="249"/>
+      <c r="D6" s="249"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="249"/>
+      <c r="I6" s="249"/>
+      <c r="J6" s="249"/>
+      <c r="K6" s="249"/>
+      <c r="L6" s="249"/>
+      <c r="M6" s="249"/>
+      <c r="N6" s="249"/>
     </row>
     <row r="7" spans="1:21" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A7" s="229"/>
-      <c r="B7" s="229"/>
-      <c r="C7" s="229"/>
-      <c r="D7" s="229"/>
-      <c r="E7" s="229"/>
-      <c r="F7" s="229"/>
-      <c r="G7" s="229"/>
-      <c r="H7" s="229"/>
-      <c r="I7" s="229"/>
-      <c r="J7" s="229"/>
-      <c r="K7" s="229"/>
-      <c r="L7" s="229"/>
-      <c r="M7" s="229"/>
-      <c r="N7" s="229"/>
+      <c r="A7" s="249"/>
+      <c r="B7" s="249"/>
+      <c r="C7" s="249"/>
+      <c r="D7" s="249"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="249"/>
+      <c r="I7" s="249"/>
+      <c r="J7" s="249"/>
+      <c r="K7" s="249"/>
+      <c r="L7" s="249"/>
+      <c r="M7" s="249"/>
+      <c r="N7" s="249"/>
     </row>
     <row r="8" spans="1:21" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A8" s="229"/>
-      <c r="B8" s="229"/>
-      <c r="C8" s="229"/>
-      <c r="D8" s="229"/>
-      <c r="E8" s="229"/>
-      <c r="F8" s="229"/>
-      <c r="G8" s="229"/>
-      <c r="H8" s="229"/>
-      <c r="I8" s="229"/>
-      <c r="J8" s="229"/>
-      <c r="K8" s="229"/>
-      <c r="L8" s="229"/>
-      <c r="M8" s="229"/>
-      <c r="N8" s="229"/>
-    </row>
-    <row r="9" spans="1:21" customFormat="1" ht="21.6" thickBot="1">
-      <c r="A9" s="232" t="str">
+      <c r="A8" s="249"/>
+      <c r="B8" s="249"/>
+      <c r="C8" s="249"/>
+      <c r="D8" s="249"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="249"/>
+      <c r="I8" s="249"/>
+      <c r="J8" s="249"/>
+      <c r="K8" s="249"/>
+      <c r="L8" s="249"/>
+      <c r="M8" s="249"/>
+      <c r="N8" s="249"/>
+    </row>
+    <row r="9" spans="1:21" customFormat="1" ht="21">
+      <c r="A9" s="253" t="str">
         <f>HYPERLINK("https://fennex.agency/","Visite Fennex Agency")</f>
         <v>Visite Fennex Agency</v>
       </c>
-      <c r="B9" s="232"/>
-      <c r="C9" s="232"/>
-      <c r="D9" s="232"/>
-      <c r="E9" s="232"/>
-      <c r="F9" s="232"/>
-      <c r="G9" s="232"/>
-      <c r="H9" s="232" t="str">
+      <c r="B9" s="253"/>
+      <c r="C9" s="253"/>
+      <c r="D9" s="253"/>
+      <c r="E9" s="253"/>
+      <c r="F9" s="253"/>
+      <c r="G9" s="253"/>
+      <c r="H9" s="253" t="str">
         <f>HYPERLINK("https://blog.fennex.agency/","Visite Fennex Blog")</f>
         <v>Visite Fennex Blog</v>
       </c>
-      <c r="I9" s="232"/>
-      <c r="J9" s="232"/>
-      <c r="K9" s="232"/>
-      <c r="L9" s="232"/>
-      <c r="M9" s="232"/>
-      <c r="N9" s="232"/>
-    </row>
-    <row r="10" spans="1:21" ht="33" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="193"/>
-      <c r="C10" s="193"/>
-      <c r="D10" s="193"/>
-      <c r="E10" s="193"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="194"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="48" t="s">
+      <c r="I9" s="253"/>
+      <c r="J9" s="253"/>
+      <c r="K9" s="253"/>
+      <c r="L9" s="253"/>
+      <c r="M9" s="253"/>
+      <c r="N9" s="253"/>
+    </row>
+    <row r="10" spans="1:21" customFormat="1" ht="15" thickBot="1"/>
+    <row r="11" spans="1:21" ht="33" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="193"/>
+      <c r="C11" s="193"/>
+      <c r="D11" s="193"/>
+      <c r="E11" s="193"/>
+      <c r="F11" s="193"/>
+      <c r="G11" s="193"/>
+      <c r="H11" s="194"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="317"/>
-      <c r="L10" s="318"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-    </row>
-    <row r="11" spans="1:21" ht="25.95" customHeight="1" thickBot="1">
-      <c r="B11" s="195"/>
-      <c r="C11" s="195"/>
-      <c r="D11" s="195"/>
-      <c r="E11" s="195"/>
-      <c r="F11" s="195"/>
-      <c r="G11" s="195"/>
-      <c r="H11" s="196"/>
-      <c r="J11" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="346"/>
-      <c r="L11" s="347"/>
+      <c r="K11" s="374"/>
+      <c r="L11" s="375"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
     </row>
-    <row r="12" spans="1:21" ht="27.45" customHeight="1" thickTop="1" thickBot="1">
+    <row r="12" spans="1:21" ht="25.95" customHeight="1" thickBot="1">
       <c r="B12" s="195"/>
       <c r="C12" s="195"/>
       <c r="D12" s="195"/>
@@ -30069,69 +30053,53 @@
       <c r="F12" s="195"/>
       <c r="G12" s="195"/>
       <c r="H12" s="196"/>
-      <c r="J12" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="348" t="s">
-        <v>212</v>
-      </c>
-      <c r="L12" s="349"/>
+      <c r="J12" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="350"/>
+      <c r="L12" s="351"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
     </row>
-    <row r="13" spans="1:21" ht="48.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="350" t="s">
+    <row r="13" spans="1:21" ht="27.45" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B13" s="195"/>
+      <c r="C13" s="195"/>
+      <c r="D13" s="195"/>
+      <c r="E13" s="195"/>
+      <c r="F13" s="195"/>
+      <c r="G13" s="195"/>
+      <c r="H13" s="196"/>
+      <c r="J13" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="352" t="s">
+        <v>212</v>
+      </c>
+      <c r="L13" s="353"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+    </row>
+    <row r="14" spans="1:21" ht="48.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A14" s="12"/>
+      <c r="B14" s="354" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="350"/>
-      <c r="D13" s="350"/>
-      <c r="E13" s="350"/>
-      <c r="F13" s="350"/>
-      <c r="G13" s="350"/>
-      <c r="H13" s="54" t="s">
+      <c r="C14" s="354"/>
+      <c r="D14" s="354"/>
+      <c r="E14" s="354"/>
+      <c r="F14" s="354"/>
+      <c r="G14" s="354"/>
+      <c r="H14" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="327">
-        <f>SUM(J14:J30)</f>
+      <c r="J14" s="355">
+        <f>SUM(J15:J31)</f>
         <v>200</v>
       </c>
-      <c r="K13" s="328"/>
-      <c r="L13" s="329"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-    </row>
-    <row r="14" spans="1:21" ht="27" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="338" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="339"/>
-      <c r="D14" s="339"/>
-      <c r="E14" s="339"/>
-      <c r="F14" s="339"/>
-      <c r="G14" s="339"/>
-      <c r="H14" s="340">
-        <v>24</v>
-      </c>
-      <c r="J14" s="340">
-        <f>VLOOKUP(L15,B40:C48,2)</f>
-        <v>24</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="L14" s="76">
-        <v>300</v>
-      </c>
+      <c r="K14" s="356"/>
+      <c r="L14" s="357"/>
       <c r="M14" s="13"/>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
@@ -30142,21 +30110,28 @@
       <c r="T14" s="14"/>
       <c r="U14" s="14"/>
     </row>
-    <row r="15" spans="1:21" ht="26.4" customHeight="1" thickBot="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="332"/>
-      <c r="C15" s="333"/>
-      <c r="D15" s="333"/>
-      <c r="E15" s="333"/>
-      <c r="F15" s="333"/>
-      <c r="G15" s="333"/>
-      <c r="H15" s="341"/>
-      <c r="J15" s="341"/>
+    <row r="15" spans="1:21" ht="27" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A15" s="12"/>
+      <c r="B15" s="362" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="363"/>
+      <c r="D15" s="363"/>
+      <c r="E15" s="363"/>
+      <c r="F15" s="363"/>
+      <c r="G15" s="363"/>
+      <c r="H15" s="366">
+        <v>24</v>
+      </c>
+      <c r="J15" s="366">
+        <f>VLOOKUP(L16,B41:C49,2)</f>
+        <v>24</v>
+      </c>
       <c r="K15" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="L15" s="77">
-        <v>2000</v>
+        <v>47</v>
+      </c>
+      <c r="L15" s="76">
+        <v>300</v>
       </c>
       <c r="M15" s="13"/>
       <c r="N15" s="14"/>
@@ -30168,28 +30143,21 @@
       <c r="T15" s="14"/>
       <c r="U15" s="14"/>
     </row>
-    <row r="16" spans="1:21" ht="54" customHeight="1" thickBot="1">
+    <row r="16" spans="1:21" ht="26.4" customHeight="1" thickBot="1">
       <c r="A16" s="16"/>
-      <c r="B16" s="332" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="333"/>
-      <c r="D16" s="333"/>
-      <c r="E16" s="333"/>
-      <c r="F16" s="333"/>
-      <c r="G16" s="333"/>
-      <c r="H16" s="17">
-        <v>24</v>
-      </c>
-      <c r="J16" s="17">
-        <f>VLOOKUP(L16,B51:C59,2)</f>
-        <v>24</v>
-      </c>
+      <c r="B16" s="364"/>
+      <c r="C16" s="365"/>
+      <c r="D16" s="365"/>
+      <c r="E16" s="365"/>
+      <c r="F16" s="365"/>
+      <c r="G16" s="365"/>
+      <c r="H16" s="367"/>
+      <c r="J16" s="367"/>
       <c r="K16" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" s="76">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="L16" s="77">
+        <v>2000</v>
       </c>
       <c r="M16" s="13"/>
       <c r="N16" s="14"/>
@@ -30203,26 +30171,26 @@
     </row>
     <row r="17" spans="1:21" ht="54" customHeight="1" thickBot="1">
       <c r="A17" s="16"/>
-      <c r="B17" s="332" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="333"/>
-      <c r="D17" s="333"/>
-      <c r="E17" s="333"/>
-      <c r="F17" s="333"/>
-      <c r="G17" s="333"/>
+      <c r="B17" s="364" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="365"/>
+      <c r="D17" s="365"/>
+      <c r="E17" s="365"/>
+      <c r="F17" s="365"/>
+      <c r="G17" s="365"/>
       <c r="H17" s="17">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J17" s="17">
-        <f t="shared" ref="J17:J28" si="0">IF(OR(L17="Y",L17="YES"),H17,0)</f>
-        <v>10</v>
+        <f>VLOOKUP(L17,B52:C60,2)</f>
+        <v>24</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="L17" s="76" t="s">
-        <v>52</v>
+        <v>24</v>
+      </c>
+      <c r="L17" s="76">
+        <v>9</v>
       </c>
       <c r="M17" s="13"/>
       <c r="N17" s="14"/>
@@ -30236,25 +30204,25 @@
     </row>
     <row r="18" spans="1:21" ht="54" customHeight="1" thickBot="1">
       <c r="A18" s="16"/>
-      <c r="B18" s="334" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="335"/>
-      <c r="D18" s="335"/>
-      <c r="E18" s="335"/>
-      <c r="F18" s="335"/>
-      <c r="G18" s="335"/>
-      <c r="H18" s="18">
-        <v>6</v>
-      </c>
-      <c r="J18" s="18">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="K18" s="378" t="s">
-        <v>292</v>
-      </c>
-      <c r="L18" s="78" t="s">
+      <c r="B18" s="364" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="365"/>
+      <c r="D18" s="365"/>
+      <c r="E18" s="365"/>
+      <c r="F18" s="365"/>
+      <c r="G18" s="365"/>
+      <c r="H18" s="17">
+        <v>10</v>
+      </c>
+      <c r="J18" s="17">
+        <f t="shared" ref="J18:J29" si="0">IF(OR(L18="Y",L18="YES"),H18,0)</f>
+        <v>10</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L18" s="76" t="s">
         <v>52</v>
       </c>
       <c r="M18" s="13"/>
@@ -30269,26 +30237,26 @@
     </row>
     <row r="19" spans="1:21" ht="54" customHeight="1" thickBot="1">
       <c r="A19" s="16"/>
-      <c r="B19" s="336" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="337"/>
-      <c r="D19" s="337"/>
-      <c r="E19" s="337"/>
-      <c r="F19" s="337"/>
-      <c r="G19" s="337"/>
-      <c r="H19" s="20">
-        <v>-200</v>
-      </c>
-      <c r="J19" s="21">
+      <c r="B19" s="384" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="385"/>
+      <c r="D19" s="385"/>
+      <c r="E19" s="385"/>
+      <c r="F19" s="385"/>
+      <c r="G19" s="385"/>
+      <c r="H19" s="18">
+        <v>6</v>
+      </c>
+      <c r="J19" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="L19" s="79" t="s">
-        <v>168</v>
+        <v>6</v>
+      </c>
+      <c r="K19" s="243" t="s">
+        <v>292</v>
+      </c>
+      <c r="L19" s="78" t="s">
+        <v>52</v>
       </c>
       <c r="M19" s="13"/>
       <c r="N19" s="14"/>
@@ -30302,26 +30270,26 @@
     </row>
     <row r="20" spans="1:21" ht="54" customHeight="1" thickBot="1">
       <c r="A20" s="16"/>
-      <c r="B20" s="336" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="337"/>
-      <c r="D20" s="337"/>
-      <c r="E20" s="337"/>
-      <c r="F20" s="337"/>
-      <c r="G20" s="337"/>
+      <c r="B20" s="368" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="369"/>
+      <c r="D20" s="369"/>
+      <c r="E20" s="369"/>
+      <c r="F20" s="369"/>
+      <c r="G20" s="369"/>
       <c r="H20" s="20">
-        <v>12</v>
+        <v>-200</v>
       </c>
       <c r="J20" s="21">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K20" s="22" t="s">
         <v>51</v>
       </c>
       <c r="L20" s="79" t="s">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="M20" s="13"/>
       <c r="N20" s="14"/>
@@ -30335,25 +30303,25 @@
     </row>
     <row r="21" spans="1:21" ht="54" customHeight="1" thickBot="1">
       <c r="A21" s="16"/>
-      <c r="B21" s="342" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="343"/>
-      <c r="D21" s="343"/>
-      <c r="E21" s="343"/>
-      <c r="F21" s="343"/>
-      <c r="G21" s="343"/>
-      <c r="H21" s="23">
+      <c r="B21" s="368" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="369"/>
+      <c r="D21" s="369"/>
+      <c r="E21" s="369"/>
+      <c r="F21" s="369"/>
+      <c r="G21" s="369"/>
+      <c r="H21" s="20">
         <v>12</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="21">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K21" s="15" t="s">
+      <c r="K21" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="L21" s="76" t="s">
+      <c r="L21" s="79" t="s">
         <v>52</v>
       </c>
       <c r="M21" s="13"/>
@@ -30368,14 +30336,14 @@
     </row>
     <row r="22" spans="1:21" ht="54" customHeight="1" thickBot="1">
       <c r="A22" s="16"/>
-      <c r="B22" s="342" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="343"/>
-      <c r="D22" s="343"/>
-      <c r="E22" s="343"/>
-      <c r="F22" s="343"/>
-      <c r="G22" s="343"/>
+      <c r="B22" s="370" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="371"/>
+      <c r="D22" s="371"/>
+      <c r="E22" s="371"/>
+      <c r="F22" s="371"/>
+      <c r="G22" s="371"/>
       <c r="H22" s="23">
         <v>12</v>
       </c>
@@ -30401,14 +30369,14 @@
     </row>
     <row r="23" spans="1:21" ht="54" customHeight="1" thickBot="1">
       <c r="A23" s="16"/>
-      <c r="B23" s="342" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="343"/>
-      <c r="D23" s="343"/>
-      <c r="E23" s="343"/>
-      <c r="F23" s="343"/>
-      <c r="G23" s="343"/>
+      <c r="B23" s="370" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="371"/>
+      <c r="D23" s="371"/>
+      <c r="E23" s="371"/>
+      <c r="F23" s="371"/>
+      <c r="G23" s="371"/>
       <c r="H23" s="23">
         <v>12</v>
       </c>
@@ -30434,25 +30402,25 @@
     </row>
     <row r="24" spans="1:21" ht="54" customHeight="1" thickBot="1">
       <c r="A24" s="16"/>
-      <c r="B24" s="344" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="345"/>
-      <c r="D24" s="345"/>
-      <c r="E24" s="345"/>
-      <c r="F24" s="345"/>
-      <c r="G24" s="345"/>
-      <c r="H24" s="24">
-        <v>8</v>
-      </c>
-      <c r="J24" s="24">
+      <c r="B24" s="370" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="371"/>
+      <c r="D24" s="371"/>
+      <c r="E24" s="371"/>
+      <c r="F24" s="371"/>
+      <c r="G24" s="371"/>
+      <c r="H24" s="23">
+        <v>12</v>
+      </c>
+      <c r="J24" s="23">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K24" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="L24" s="78" t="s">
+      <c r="L24" s="76" t="s">
         <v>52</v>
       </c>
       <c r="M24" s="13"/>
@@ -30467,25 +30435,25 @@
     </row>
     <row r="25" spans="1:21" ht="54" customHeight="1" thickBot="1">
       <c r="A25" s="16"/>
-      <c r="B25" s="351" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="352"/>
-      <c r="D25" s="352"/>
-      <c r="E25" s="352"/>
-      <c r="F25" s="352"/>
-      <c r="G25" s="352"/>
-      <c r="H25" s="25">
-        <v>20</v>
-      </c>
-      <c r="J25" s="26">
+      <c r="B25" s="372" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="373"/>
+      <c r="D25" s="373"/>
+      <c r="E25" s="373"/>
+      <c r="F25" s="373"/>
+      <c r="G25" s="373"/>
+      <c r="H25" s="24">
+        <v>8</v>
+      </c>
+      <c r="J25" s="24">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K25" s="377" t="s">
-        <v>291</v>
-      </c>
-      <c r="L25" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L25" s="78" t="s">
         <v>52</v>
       </c>
       <c r="M25" s="13"/>
@@ -30500,25 +30468,25 @@
     </row>
     <row r="26" spans="1:21" ht="54" customHeight="1" thickBot="1">
       <c r="A26" s="16"/>
-      <c r="B26" s="330" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="331"/>
-      <c r="D26" s="331"/>
-      <c r="E26" s="331"/>
-      <c r="F26" s="331"/>
-      <c r="G26" s="331"/>
-      <c r="H26" s="27">
-        <v>10</v>
-      </c>
-      <c r="J26" s="27">
+      <c r="B26" s="358" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="359"/>
+      <c r="D26" s="359"/>
+      <c r="E26" s="359"/>
+      <c r="F26" s="359"/>
+      <c r="G26" s="359"/>
+      <c r="H26" s="25">
+        <v>20</v>
+      </c>
+      <c r="J26" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="L26" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="242" t="s">
+        <v>291</v>
+      </c>
+      <c r="L26" s="79" t="s">
         <v>52</v>
       </c>
       <c r="M26" s="13"/>
@@ -30533,20 +30501,20 @@
     </row>
     <row r="27" spans="1:21" ht="54" customHeight="1" thickBot="1">
       <c r="A27" s="16"/>
-      <c r="B27" s="330" t="s">
-        <v>239</v>
-      </c>
-      <c r="C27" s="331"/>
-      <c r="D27" s="331"/>
-      <c r="E27" s="331"/>
-      <c r="F27" s="331"/>
-      <c r="G27" s="331"/>
+      <c r="B27" s="360" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="361"/>
+      <c r="D27" s="361"/>
+      <c r="E27" s="361"/>
+      <c r="F27" s="361"/>
+      <c r="G27" s="361"/>
       <c r="H27" s="27">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J27" s="27">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K27" s="15" t="s">
         <v>51</v>
@@ -30566,25 +30534,25 @@
     </row>
     <row r="28" spans="1:21" ht="54" customHeight="1" thickBot="1">
       <c r="A28" s="16"/>
-      <c r="B28" s="321" t="s">
-        <v>238</v>
-      </c>
-      <c r="C28" s="322"/>
-      <c r="D28" s="322"/>
-      <c r="E28" s="322"/>
-      <c r="F28" s="322"/>
-      <c r="G28" s="322"/>
-      <c r="H28" s="28">
+      <c r="B28" s="360" t="s">
+        <v>239</v>
+      </c>
+      <c r="C28" s="361"/>
+      <c r="D28" s="361"/>
+      <c r="E28" s="361"/>
+      <c r="F28" s="361"/>
+      <c r="G28" s="361"/>
+      <c r="H28" s="27">
         <v>8</v>
       </c>
-      <c r="J28" s="28">
+      <c r="J28" s="27">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K28" s="19" t="s">
+      <c r="K28" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="L28" s="78" t="s">
+      <c r="L28" s="76" t="s">
         <v>52</v>
       </c>
       <c r="M28" s="13"/>
@@ -30599,26 +30567,26 @@
     </row>
     <row r="29" spans="1:21" ht="54" customHeight="1" thickBot="1">
       <c r="A29" s="16"/>
-      <c r="B29" s="323" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="324"/>
-      <c r="D29" s="324"/>
-      <c r="E29" s="324"/>
-      <c r="F29" s="324"/>
-      <c r="G29" s="324"/>
-      <c r="H29" s="29">
-        <v>24</v>
-      </c>
-      <c r="J29" s="30">
-        <f>IF(L29&lt;40%,H29,0)</f>
-        <v>24</v>
-      </c>
-      <c r="K29" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="L29" s="80">
-        <v>0.39</v>
+      <c r="B29" s="378" t="s">
+        <v>238</v>
+      </c>
+      <c r="C29" s="379"/>
+      <c r="D29" s="379"/>
+      <c r="E29" s="379"/>
+      <c r="F29" s="379"/>
+      <c r="G29" s="379"/>
+      <c r="H29" s="28">
+        <v>8</v>
+      </c>
+      <c r="J29" s="28">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L29" s="78" t="s">
+        <v>52</v>
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="14"/>
@@ -30632,25 +30600,25 @@
     </row>
     <row r="30" spans="1:21" ht="54" customHeight="1" thickBot="1">
       <c r="A30" s="16"/>
-      <c r="B30" s="325" t="s">
-        <v>237</v>
-      </c>
-      <c r="C30" s="326"/>
-      <c r="D30" s="326"/>
-      <c r="E30" s="326"/>
-      <c r="F30" s="326"/>
-      <c r="G30" s="326"/>
-      <c r="H30" s="84">
-        <v>10</v>
-      </c>
-      <c r="J30" s="29">
+      <c r="B30" s="380" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="381"/>
+      <c r="D30" s="381"/>
+      <c r="E30" s="381"/>
+      <c r="F30" s="381"/>
+      <c r="G30" s="381"/>
+      <c r="H30" s="29">
+        <v>24</v>
+      </c>
+      <c r="J30" s="30">
         <f>IF(L30&lt;40%,H30,0)</f>
-        <v>10</v>
-      </c>
-      <c r="K30" s="376" t="s">
-        <v>290</v>
-      </c>
-      <c r="L30" s="81">
+        <v>24</v>
+      </c>
+      <c r="K30" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="L30" s="80">
         <v>0.39</v>
       </c>
       <c r="M30" s="13"/>
@@ -30663,22 +30631,29 @@
       <c r="T30" s="14"/>
       <c r="U30" s="14"/>
     </row>
-    <row r="31" spans="1:21" ht="45" customHeight="1" thickTop="1" thickBot="1">
+    <row r="31" spans="1:21" ht="54" customHeight="1" thickBot="1">
       <c r="A31" s="16"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="J31" s="327">
-        <f>SUM(J14:J30)</f>
-        <v>200</v>
-      </c>
-      <c r="K31" s="328"/>
-      <c r="L31" s="329"/>
+      <c r="B31" s="382" t="s">
+        <v>237</v>
+      </c>
+      <c r="C31" s="383"/>
+      <c r="D31" s="383"/>
+      <c r="E31" s="383"/>
+      <c r="F31" s="383"/>
+      <c r="G31" s="383"/>
+      <c r="H31" s="84">
+        <v>10</v>
+      </c>
+      <c r="J31" s="29">
+        <f>IF(L31&lt;40%,H31,0)</f>
+        <v>10</v>
+      </c>
+      <c r="K31" s="241" t="s">
+        <v>290</v>
+      </c>
+      <c r="L31" s="81">
+        <v>0.39</v>
+      </c>
       <c r="M31" s="13"/>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
@@ -30689,20 +30664,22 @@
       <c r="T31" s="14"/>
       <c r="U31" s="14"/>
     </row>
-    <row r="32" spans="1:21" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1">
+    <row r="32" spans="1:21" ht="45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A32" s="16"/>
-      <c r="B32" s="319" t="s">
-        <v>213</v>
-      </c>
-      <c r="C32" s="320"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
       <c r="F32"/>
       <c r="G32"/>
-      <c r="H32" s="32"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="13"/>
+      <c r="H32" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="J32" s="355">
+        <f>SUM(J15:J31)</f>
+        <v>200</v>
+      </c>
+      <c r="K32" s="356"/>
+      <c r="L32" s="357"/>
       <c r="M32" s="13"/>
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
@@ -30714,39 +30691,36 @@
       <c r="U32" s="14"/>
     </row>
     <row r="33" spans="1:21" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A33" s="35"/>
-      <c r="B33" s="59" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="376" t="s">
+        <v>213</v>
+      </c>
+      <c r="C33" s="377"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33" s="32"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+    </row>
+    <row r="34" spans="1:21" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A34" s="35"/>
+      <c r="B34" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C34" s="60" t="s">
         <v>215</v>
-      </c>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
-    </row>
-    <row r="34" spans="1:21" ht="40.049999999999997" customHeight="1" thickBot="1">
-      <c r="A34" s="35"/>
-      <c r="B34" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="C34" s="69" t="s">
-        <v>219</v>
       </c>
       <c r="D34" s="36"/>
       <c r="E34" s="36"/>
@@ -30769,11 +30743,11 @@
     </row>
     <row r="35" spans="1:21" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A35" s="35"/>
-      <c r="B35" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="73" t="s">
-        <v>216</v>
+      <c r="B35" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="69" t="s">
+        <v>219</v>
       </c>
       <c r="D35" s="36"/>
       <c r="E35" s="36"/>
@@ -30796,11 +30770,11 @@
     </row>
     <row r="36" spans="1:21" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A36" s="35"/>
-      <c r="B36" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="71" t="s">
-        <v>217</v>
+      <c r="B36" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="73" t="s">
+        <v>216</v>
       </c>
       <c r="D36" s="36"/>
       <c r="E36" s="36"/>
@@ -30823,16 +30797,16 @@
     </row>
     <row r="37" spans="1:21" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A37" s="35"/>
-      <c r="B37" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="75" t="s">
-        <v>218</v>
-      </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
+      <c r="B37" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
       <c r="H37" s="37"/>
       <c r="I37" s="36"/>
       <c r="J37" s="36"/>
@@ -30848,44 +30822,44 @@
       <c r="T37" s="38"/>
       <c r="U37" s="38"/>
     </row>
-    <row r="38" spans="1:21" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A38" s="16"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
+    <row r="38" spans="1:21" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A38" s="35"/>
+      <c r="B38" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="75" t="s">
+        <v>218</v>
+      </c>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
       <c r="K38" s="34"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="38"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="38"/>
+      <c r="U38" s="38"/>
     </row>
     <row r="39" spans="1:21" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1">
       <c r="A39" s="16"/>
-      <c r="B39" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
       <c r="K39" s="34"/>
       <c r="L39" s="13"/>
       <c r="M39" s="13"/>
@@ -30898,21 +30872,21 @@
       <c r="T39" s="14"/>
       <c r="U39" s="14"/>
     </row>
-    <row r="40" spans="1:21" ht="40.049999999999997" customHeight="1" thickTop="1">
-      <c r="A40" s="13"/>
-      <c r="B40" s="61">
-        <v>2000</v>
-      </c>
-      <c r="C40" s="61">
-        <v>24</v>
-      </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
+    <row r="40" spans="1:21" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A40" s="16"/>
+      <c r="B40" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
       <c r="K40" s="34"/>
       <c r="L40" s="13"/>
       <c r="M40" s="13"/>
@@ -30925,54 +30899,52 @@
       <c r="T40" s="14"/>
       <c r="U40" s="14"/>
     </row>
-    <row r="41" spans="1:21" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="41" spans="1:21" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A41" s="13"/>
       <c r="B41" s="61">
-        <f>B40+1000</f>
+        <v>2000</v>
+      </c>
+      <c r="C41" s="61">
+        <v>24</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+    </row>
+    <row r="42" spans="1:21" customFormat="1" ht="40.049999999999997" customHeight="1">
+      <c r="B42" s="61">
+        <f>B41+1000</f>
         <v>3000</v>
       </c>
-      <c r="C41" s="61">
-        <f>C40-3</f>
+      <c r="C42" s="61">
+        <f>C41-3</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" ht="40.049999999999997" customHeight="1">
-      <c r="A42" s="14"/>
-      <c r="B42" s="61">
-        <f t="shared" ref="B42:B48" si="1">B41+1000</f>
-        <v>4000</v>
-      </c>
-      <c r="C42" s="61">
-        <f t="shared" ref="C42:C48" si="2">C41-3</f>
-        <v>18</v>
-      </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
     </row>
     <row r="43" spans="1:21" ht="40.049999999999997" customHeight="1">
       <c r="A43" s="14"/>
       <c r="B43" s="61">
-        <f t="shared" si="1"/>
-        <v>5000</v>
+        <f t="shared" ref="B43:B49" si="1">B42+1000</f>
+        <v>4000</v>
       </c>
       <c r="C43" s="61">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f t="shared" ref="C43:C49" si="2">C42-3</f>
+        <v>18</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
@@ -30984,24 +30956,24 @@
       <c r="K43" s="34"/>
       <c r="L43" s="13"/>
       <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
     </row>
     <row r="44" spans="1:21" ht="40.049999999999997" customHeight="1">
       <c r="A44" s="14"/>
       <c r="B44" s="61">
         <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="C44" s="61">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
@@ -31026,11 +30998,11 @@
       <c r="A45" s="14"/>
       <c r="B45" s="61">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="C45" s="61">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
@@ -31055,11 +31027,11 @@
       <c r="A46" s="14"/>
       <c r="B46" s="61">
         <f t="shared" si="1"/>
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="C46" s="61">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
@@ -31084,11 +31056,11 @@
       <c r="A47" s="14"/>
       <c r="B47" s="61">
         <f t="shared" si="1"/>
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="C47" s="61">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
@@ -31109,15 +31081,15 @@
       <c r="T47" s="13"/>
       <c r="U47" s="13"/>
     </row>
-    <row r="48" spans="1:21" ht="40.049999999999997" customHeight="1" thickBot="1">
+    <row r="48" spans="1:21" ht="40.049999999999997" customHeight="1">
       <c r="A48" s="14"/>
-      <c r="B48" s="63">
+      <c r="B48" s="61">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="C48" s="61">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
@@ -31140,8 +31112,14 @@
     </row>
     <row r="49" spans="1:21" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A49" s="14"/>
-      <c r="B49" s="67"/>
-      <c r="C49" s="67"/>
+      <c r="B49" s="63">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="C49" s="61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
@@ -31163,12 +31141,8 @@
     </row>
     <row r="50" spans="1:21" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A50" s="14"/>
-      <c r="B50" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="93" t="s">
-        <v>68</v>
-      </c>
+      <c r="B50" s="67"/>
+      <c r="C50" s="67"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
@@ -31188,14 +31162,13 @@
       <c r="T50" s="13"/>
       <c r="U50" s="13"/>
     </row>
-    <row r="51" spans="1:21" ht="40.049999999999997" customHeight="1" thickTop="1">
+    <row r="51" spans="1:21" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A51" s="14"/>
-      <c r="B51" s="82">
-        <v>1</v>
-      </c>
-      <c r="C51" s="62">
-        <f t="shared" ref="C51:C58" si="3">C52-3</f>
-        <v>0</v>
+      <c r="B51" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="93" t="s">
+        <v>68</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
@@ -31216,14 +31189,14 @@
       <c r="T51" s="13"/>
       <c r="U51" s="13"/>
     </row>
-    <row r="52" spans="1:21" ht="40.049999999999997" customHeight="1">
+    <row r="52" spans="1:21" ht="40.049999999999997" customHeight="1" thickTop="1">
       <c r="A52" s="14"/>
-      <c r="B52" s="83">
-        <v>2</v>
+      <c r="B52" s="82">
+        <v>1</v>
       </c>
       <c r="C52" s="62">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" ref="C52:C59" si="3">C53-3</f>
+        <v>0</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
@@ -31247,11 +31220,11 @@
     <row r="53" spans="1:21" ht="40.049999999999997" customHeight="1">
       <c r="A53" s="14"/>
       <c r="B53" s="83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53" s="62">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
@@ -31273,21 +31246,21 @@
       <c r="U53" s="13"/>
     </row>
     <row r="54" spans="1:21" ht="40.049999999999997" customHeight="1">
-      <c r="A54" s="13"/>
+      <c r="A54" s="14"/>
       <c r="B54" s="83">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C54" s="62">
         <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
+        <v>6</v>
+      </c>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
       <c r="K54" s="34"/>
       <c r="L54" s="13"/>
       <c r="M54" s="13"/>
@@ -31303,11 +31276,11 @@
     <row r="55" spans="1:21" ht="40.049999999999997" customHeight="1">
       <c r="A55" s="13"/>
       <c r="B55" s="83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55" s="62">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
@@ -31331,61 +31304,86 @@
     <row r="56" spans="1:21" ht="40.049999999999997" customHeight="1">
       <c r="A56" s="13"/>
       <c r="B56" s="83">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56" s="62">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
+        <v>12</v>
+      </c>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
       <c r="K56" s="34"/>
       <c r="L56" s="13"/>
       <c r="M56" s="13"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="14"/>
-      <c r="P56" s="14"/>
-      <c r="Q56" s="14"/>
-      <c r="R56" s="14"/>
-      <c r="S56" s="14"/>
-      <c r="T56" s="14"/>
-      <c r="U56" s="14"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="13"/>
+      <c r="U56" s="13"/>
     </row>
     <row r="57" spans="1:21" ht="40.049999999999997" customHeight="1">
+      <c r="A57" s="13"/>
       <c r="B57" s="83">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C57" s="62">
         <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="K57" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="14"/>
+      <c r="U57" s="14"/>
     </row>
     <row r="58" spans="1:21" ht="40.049999999999997" customHeight="1">
       <c r="B58" s="83">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" s="62">
         <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" spans="1:21" ht="40.049999999999997" customHeight="1">
+      <c r="B59" s="83">
+        <v>8</v>
+      </c>
+      <c r="C59" s="62">
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="1:21" ht="40.049999999999997" customHeight="1" thickBot="1">
-      <c r="B59" s="63">
+      <c r="K59" s="3"/>
+    </row>
+    <row r="60" spans="1:21" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="B60" s="63">
         <v>9</v>
       </c>
-      <c r="C59" s="64">
+      <c r="C60" s="64">
         <v>24</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="1:21">
       <c r="K60" s="3"/>
     </row>
     <row r="61" spans="1:21">
@@ -31395,57 +31393,57 @@
       <c r="K62" s="3"/>
     </row>
     <row r="63" spans="1:21">
-      <c r="A63" s="226" t="s">
+      <c r="K63" s="3"/>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="255" t="s">
         <v>232</v>
       </c>
-      <c r="B63" s="226"/>
-      <c r="C63" s="226"/>
-      <c r="D63" s="226"/>
-      <c r="E63" s="226"/>
-      <c r="F63" s="226"/>
-      <c r="G63" s="226"/>
-      <c r="H63" s="226"/>
-      <c r="I63" s="226"/>
-      <c r="J63" s="226"/>
-      <c r="K63" s="226"/>
-      <c r="L63" s="226"/>
-      <c r="M63" s="226"/>
-      <c r="N63" s="226"/>
-    </row>
-    <row r="64" spans="1:21">
-      <c r="A64" s="226"/>
-      <c r="B64" s="226"/>
-      <c r="C64" s="226"/>
-      <c r="D64" s="226"/>
-      <c r="E64" s="226"/>
-      <c r="F64" s="226"/>
-      <c r="G64" s="226"/>
-      <c r="H64" s="226"/>
-      <c r="I64" s="226"/>
-      <c r="J64" s="226"/>
-      <c r="K64" s="226"/>
-      <c r="L64" s="226"/>
-      <c r="M64" s="226"/>
-      <c r="N64" s="226"/>
+      <c r="B64" s="255"/>
+      <c r="C64" s="255"/>
+      <c r="D64" s="255"/>
+      <c r="E64" s="255"/>
+      <c r="F64" s="255"/>
+      <c r="G64" s="255"/>
+      <c r="H64" s="255"/>
+      <c r="I64" s="255"/>
+      <c r="J64" s="255"/>
+      <c r="K64" s="255"/>
+      <c r="L64" s="255"/>
+      <c r="M64" s="255"/>
+      <c r="N64" s="255"/>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="226"/>
-      <c r="B65" s="226"/>
-      <c r="C65" s="226"/>
-      <c r="D65" s="226"/>
-      <c r="E65" s="226"/>
-      <c r="F65" s="226"/>
-      <c r="G65" s="226"/>
-      <c r="H65" s="226"/>
-      <c r="I65" s="226"/>
-      <c r="J65" s="226"/>
-      <c r="K65" s="226"/>
-      <c r="L65" s="226"/>
-      <c r="M65" s="226"/>
-      <c r="N65" s="226"/>
+      <c r="A65" s="255"/>
+      <c r="B65" s="255"/>
+      <c r="C65" s="255"/>
+      <c r="D65" s="255"/>
+      <c r="E65" s="255"/>
+      <c r="F65" s="255"/>
+      <c r="G65" s="255"/>
+      <c r="H65" s="255"/>
+      <c r="I65" s="255"/>
+      <c r="J65" s="255"/>
+      <c r="K65" s="255"/>
+      <c r="L65" s="255"/>
+      <c r="M65" s="255"/>
+      <c r="N65" s="255"/>
     </row>
     <row r="66" spans="1:14">
-      <c r="K66" s="3"/>
+      <c r="A66" s="255"/>
+      <c r="B66" s="255"/>
+      <c r="C66" s="255"/>
+      <c r="D66" s="255"/>
+      <c r="E66" s="255"/>
+      <c r="F66" s="255"/>
+      <c r="G66" s="255"/>
+      <c r="H66" s="255"/>
+      <c r="I66" s="255"/>
+      <c r="J66" s="255"/>
+      <c r="K66" s="255"/>
+      <c r="L66" s="255"/>
+      <c r="M66" s="255"/>
+      <c r="N66" s="255"/>
     </row>
     <row r="67" spans="1:14">
       <c r="K67" s="3"/>
@@ -34270,106 +34268,109 @@
     <row r="1007" spans="11:11">
       <c r="K1007" s="3"/>
     </row>
+    <row r="1008" spans="11:11">
+      <c r="K1008" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A64:N66"/>
     <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
     <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="J15:J16"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B24:G24"/>
-    <mergeCell ref="A63:N65"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="B26:G26"/>
   </mergeCells>
-  <conditionalFormatting sqref="J31">
+  <conditionalFormatting sqref="J32">
     <cfRule type="cellIs" dxfId="11" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
+  <conditionalFormatting sqref="J32">
     <cfRule type="cellIs" dxfId="10" priority="33" operator="greaterThanOrEqual">
       <formula>81</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
+  <conditionalFormatting sqref="J32">
     <cfRule type="cellIs" dxfId="9" priority="34" operator="between">
       <formula>71</formula>
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
+  <conditionalFormatting sqref="J32">
     <cfRule type="cellIs" dxfId="8" priority="35" operator="between">
       <formula>61</formula>
       <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
+  <conditionalFormatting sqref="J32">
     <cfRule type="cellIs" dxfId="7" priority="36" operator="between">
       <formula>51</formula>
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
+  <conditionalFormatting sqref="J32">
     <cfRule type="cellIs" dxfId="6" priority="37" operator="lessThanOrEqual">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+  <conditionalFormatting sqref="J14">
     <cfRule type="cellIs" dxfId="5" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+  <conditionalFormatting sqref="J14">
     <cfRule type="cellIs" dxfId="4" priority="20" operator="greaterThanOrEqual">
       <formula>81</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+  <conditionalFormatting sqref="J14">
     <cfRule type="cellIs" dxfId="3" priority="21" operator="between">
       <formula>71</formula>
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+  <conditionalFormatting sqref="J14">
     <cfRule type="cellIs" dxfId="2" priority="22" operator="between">
       <formula>61</formula>
       <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+  <conditionalFormatting sqref="J14">
     <cfRule type="cellIs" dxfId="1" priority="23" operator="between">
       <formula>51</formula>
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+  <conditionalFormatting sqref="J14">
     <cfRule type="cellIs" dxfId="0" priority="24" operator="lessThanOrEqual">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C48">
+  <conditionalFormatting sqref="C41:C49">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -34389,7 +34390,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40:B48">
+  <conditionalFormatting sqref="B41:B49">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -34409,7 +34410,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
+  <conditionalFormatting sqref="B60">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -34429,7 +34430,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C51:C59">
+  <conditionalFormatting sqref="C52:C60">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -34449,7 +34450,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51:B58">
+  <conditionalFormatting sqref="B52:B59">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
@@ -34462,14 +34463,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L17:L28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18:L29">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L15">
-      <formula1>$B$40:$B$48</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L16">
+      <formula1>$B$41:$B$49</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L16">
-      <formula1>$B$51:$B$59</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L17">
+      <formula1>$B$52:$B$60</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
